--- a/Data.xlsx
+++ b/Data.xlsx
@@ -47,553 +47,553 @@
     <t>时段平均值</t>
   </si>
   <si>
-    <t>2020-07-20 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 14:00:00</t>
+    <t>2020-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 09:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 14:00:00</t>
   </si>
   <si>
     <t>F17-D-位移(mm)</t>
   </si>
   <si>
-    <t>2020-07-20 05:00:00</t>
-  </si>
-  <si>
     <t>G11-D-位移(mm)</t>
   </si>
   <si>
-    <t>2020-07-22 15:00:00</t>
+    <t>2020-08-12 22:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 14:00:00</t>
   </si>
   <si>
     <t>F17-L-倾角(°)</t>
   </si>
   <si>
-    <t>2020-07-26 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 12:00:00</t>
+    <t>2020-08-12 09:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 01:00:00</t>
   </si>
   <si>
     <t>G11-L-倾角(°)</t>
   </si>
   <si>
-    <t>2020-07-26 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 01:00:00</t>
+    <t>2020-08-10 23:00:00</t>
   </si>
   <si>
     <t>D2-2倾角-倾角(°)</t>
   </si>
   <si>
-    <t>2020-07-23 22:00:00</t>
-  </si>
-  <si>
     <t>ZW24-1倾角-倾角(°)</t>
   </si>
   <si>
-    <t>2020-07-23 19:00:00</t>
+    <t>2020-08-11 00:00:00</t>
   </si>
   <si>
     <t>ZW24-2倾角-倾角(°)</t>
   </si>
   <si>
-    <t>2020-07-24 15:00:00</t>
+    <t>2020-08-16 23:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 17:00:00</t>
   </si>
   <si>
     <t>ZE24-1倾角-倾角(°)</t>
   </si>
   <si>
+    <t>2020-08-16 19:00:00</t>
+  </si>
+  <si>
     <t>ZE24-2倾角-倾角(°)</t>
   </si>
   <si>
-    <t>2020-07-25 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 08:00:00</t>
+    <t>2020-08-11 11:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 13:00:00</t>
+  </si>
+  <si>
+    <t>D2-2-2位移-位移(mm)</t>
+  </si>
+  <si>
+    <t>2020-08-12 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 15:00:00</t>
   </si>
   <si>
     <t>D2-2-1位移-位移(mm)</t>
   </si>
   <si>
-    <t>2020-07-24 16:00:00</t>
-  </si>
-  <si>
-    <t>D2-2-2位移-位移(mm)</t>
-  </si>
-  <si>
     <t>ZW24-1位移-位移(mm)</t>
   </si>
   <si>
+    <t>2020-08-13 16:00:00</t>
+  </si>
+  <si>
     <t>ZW24-2位移-位移(mm)</t>
   </si>
   <si>
-    <t>2020-07-26 04:00:00</t>
+    <t>2020-08-16 05:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 16:00:00</t>
   </si>
   <si>
     <t>ZE24-1位移-位移(mm)</t>
   </si>
   <si>
-    <t>2020-07-22 14:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 20:00:00</t>
+    <t>2020-08-12 21:00:00</t>
   </si>
   <si>
     <t>ZE24-2位移-位移(mm)</t>
   </si>
   <si>
-    <t>2020-07-20 01:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 02:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 03:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 04:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 06:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 07:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 11:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 12:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 13:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 14:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 15:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 16:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 17:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 18:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 19:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 20:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 21:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 22:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-20 23:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 01:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 02:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 03:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 04:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 05:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 06:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 07:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 11:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 12:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 13:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 14:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 15:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 16:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 17:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 18:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 19:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 20:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 21:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 22:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-21 23:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 01:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 02:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 03:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 04:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 05:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 06:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 07:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 11:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 12:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 13:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 16:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 17:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 18:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 19:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 20:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 21:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 22:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-22 23:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 01:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 02:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 03:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 04:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 05:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 06:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 07:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 11:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 12:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 13:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 14:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 16:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 17:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 18:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 20:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 21:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-23 23:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 02:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 03:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 04:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 05:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 06:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 07:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 11:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 12:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 13:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 17:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 18:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 19:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 20:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 21:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 22:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-24 23:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 01:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 02:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 03:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 04:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 05:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 06:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 07:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 11:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 13:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 14:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 15:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 16:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 17:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 18:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 19:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 20:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 21:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 22:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-25 23:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 01:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 02:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 03:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 05:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 06:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 07:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 11:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 12:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 13:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 14:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 15:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 16:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 17:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 18:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 19:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 21:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 22:00:00</t>
-  </si>
-  <si>
-    <t>2020-07-26 23:00:00</t>
+    <t>2020-08-10 01:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 02:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 03:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 04:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 05:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 06:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 07:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 09:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 10:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 11:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 13:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 14:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 15:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 16:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 18:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 19:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 20:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10 22:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 02:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 03:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 04:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 05:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 06:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 07:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 10:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 13:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 14:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 15:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 16:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 18:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 19:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 20:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 21:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 22:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11 23:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 01:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 02:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 03:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 04:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 05:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 06:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 07:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 10:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 11:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 13:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 15:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 18:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 19:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 20:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12 23:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 01:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 02:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 03:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 04:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 05:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 06:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 07:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 09:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 10:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 11:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 13:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 15:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 18:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 19:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 20:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 22:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13 23:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 01:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 02:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 03:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 04:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 05:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 06:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 07:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 09:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 10:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 11:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 14:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 15:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 16:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 18:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 19:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 20:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 21:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 22:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14 23:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 01:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 02:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 03:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 04:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 05:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 06:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 07:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 09:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 10:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 11:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 13:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 14:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 15:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 16:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 18:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 19:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 20:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 21:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 22:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15 23:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 01:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 02:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 03:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 04:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 06:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 07:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 08:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 09:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 10:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 11:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 13:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 14:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 16:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 18:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 20:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 21:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16 22:00:00</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="8">
         <v>16</v>
@@ -1246,16 +1246,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="H2" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="H2" t="s" s="8">
-        <v>26</v>
-      </c>
       <c r="I2" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s" s="8">
         <v>29</v>
@@ -1264,19 +1264,19 @@
         <v>32</v>
       </c>
       <c r="L2" t="s" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1284,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n" s="11">
-        <v>-0.373</v>
+        <v>-0.658</v>
       </c>
       <c r="C3" t="n" s="11">
-        <v>-0.138</v>
+        <v>-0.288</v>
       </c>
       <c r="D3" t="n" s="11">
         <v>0.0</v>
@@ -1311,33 +1311,33 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n" s="11">
-        <v>-0.149</v>
+        <v>-0.053</v>
       </c>
       <c r="L3" t="n" s="11">
-        <v>0.304</v>
+        <v>0.097</v>
       </c>
       <c r="M3" t="n" s="11">
-        <v>-0.058</v>
+        <v>-0.128</v>
       </c>
       <c r="N3" t="n" s="11">
-        <v>-1.097</v>
+        <v>-1.136</v>
       </c>
       <c r="O3" t="n" s="11">
-        <v>-0.241</v>
+        <v>-0.41</v>
       </c>
       <c r="P3" t="n" s="11">
-        <v>-0.436</v>
+        <v>-0.577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n" s="11">
-        <v>-0.362</v>
+        <v>-0.653</v>
       </c>
       <c r="C4" t="n" s="11">
-        <v>-0.136</v>
+        <v>-0.285</v>
       </c>
       <c r="D4" t="n" s="11">
         <v>0.0</v>
@@ -1361,33 +1361,33 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n" s="11">
-        <v>-0.132</v>
+        <v>-0.051</v>
       </c>
       <c r="L4" t="n" s="11">
-        <v>0.306</v>
+        <v>0.096</v>
       </c>
       <c r="M4" t="n" s="11">
-        <v>-0.058</v>
+        <v>-0.128</v>
       </c>
       <c r="N4" t="n" s="11">
-        <v>-1.09</v>
+        <v>-1.134</v>
       </c>
       <c r="O4" t="n" s="11">
-        <v>-0.239</v>
+        <v>-0.398</v>
       </c>
       <c r="P4" t="n" s="11">
-        <v>-0.442</v>
+        <v>-0.568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n" s="11">
-        <v>-0.358</v>
+        <v>-0.658</v>
       </c>
       <c r="C5" t="n" s="11">
-        <v>-0.132</v>
+        <v>-0.29</v>
       </c>
       <c r="D5" t="n" s="11">
         <v>0.0</v>
@@ -1411,33 +1411,33 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="n" s="11">
-        <v>-0.138</v>
+        <v>-0.047</v>
       </c>
       <c r="L5" t="n" s="11">
-        <v>0.298</v>
+        <v>0.123</v>
       </c>
       <c r="M5" t="n" s="11">
-        <v>-0.046</v>
+        <v>-0.121</v>
       </c>
       <c r="N5" t="n" s="11">
-        <v>-1.084</v>
+        <v>-1.134</v>
       </c>
       <c r="O5" t="n" s="11">
-        <v>-0.239</v>
+        <v>-0.399</v>
       </c>
       <c r="P5" t="n" s="11">
-        <v>-0.415</v>
+        <v>-0.571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" t="n" s="11">
-        <v>-0.348</v>
+        <v>-0.651</v>
       </c>
       <c r="C6" t="n" s="11">
-        <v>-0.13</v>
+        <v>-0.286</v>
       </c>
       <c r="D6" t="n" s="11">
         <v>0.0</v>
@@ -1461,33 +1461,33 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="n" s="11">
-        <v>-0.122</v>
+        <v>-0.071</v>
       </c>
       <c r="L6" t="n" s="11">
-        <v>0.36</v>
+        <v>0.124</v>
       </c>
       <c r="M6" t="n" s="11">
-        <v>-0.033</v>
+        <v>-0.134</v>
       </c>
       <c r="N6" t="n" s="11">
-        <v>-1.079</v>
+        <v>-1.135</v>
       </c>
       <c r="O6" t="n" s="11">
-        <v>-0.238</v>
+        <v>-0.399</v>
       </c>
       <c r="P6" t="n" s="11">
-        <v>-0.416</v>
+        <v>-0.576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="n" s="11">
-        <v>-0.344</v>
+        <v>-0.643</v>
       </c>
       <c r="C7" t="n" s="11">
-        <v>-0.127</v>
+        <v>-0.286</v>
       </c>
       <c r="D7" t="n" s="11">
         <v>0.0</v>
@@ -1511,33 +1511,33 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="n" s="11">
-        <v>-0.116</v>
+        <v>-0.056</v>
       </c>
       <c r="L7" t="n" s="11">
-        <v>0.368</v>
+        <v>0.119</v>
       </c>
       <c r="M7" t="n" s="11">
-        <v>-0.039</v>
+        <v>-0.138</v>
       </c>
       <c r="N7" t="n" s="11">
-        <v>-1.077</v>
+        <v>-1.129</v>
       </c>
       <c r="O7" t="n" s="11">
-        <v>-0.259</v>
+        <v>-0.395</v>
       </c>
       <c r="P7" t="n" s="11">
-        <v>-0.425</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="11">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B8" t="n" s="11">
-        <v>-0.337</v>
+        <v>-0.64</v>
       </c>
       <c r="C8" t="n" s="11">
-        <v>-0.119</v>
+        <v>-0.281</v>
       </c>
       <c r="D8" t="n" s="11">
         <v>0.0</v>
@@ -1561,33 +1561,33 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="n" s="11">
-        <v>-0.118</v>
+        <v>-0.033</v>
       </c>
       <c r="L8" t="n" s="11">
-        <v>0.355</v>
+        <v>0.116</v>
       </c>
       <c r="M8" t="n" s="11">
-        <v>-0.023</v>
+        <v>-0.112</v>
       </c>
       <c r="N8" t="n" s="11">
-        <v>-1.07</v>
+        <v>-1.123</v>
       </c>
       <c r="O8" t="n" s="11">
-        <v>-0.256</v>
+        <v>-0.408</v>
       </c>
       <c r="P8" t="n" s="11">
-        <v>-0.421</v>
+        <v>-0.574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n" s="11">
-        <v>-0.354</v>
+        <v>-0.629</v>
       </c>
       <c r="C9" t="n" s="11">
-        <v>-0.131</v>
+        <v>-0.279</v>
       </c>
       <c r="D9" t="n" s="11">
         <v>0.0</v>
@@ -1611,33 +1611,33 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n" s="11">
-        <v>-0.114</v>
+        <v>-0.044</v>
       </c>
       <c r="L9" t="n" s="11">
-        <v>0.35</v>
+        <v>0.111</v>
       </c>
       <c r="M9" t="n" s="11">
-        <v>-0.016</v>
+        <v>-0.106</v>
       </c>
       <c r="N9" t="n" s="11">
-        <v>-1.066</v>
+        <v>-1.117</v>
       </c>
       <c r="O9" t="n" s="11">
-        <v>-0.26</v>
+        <v>-0.417</v>
       </c>
       <c r="P9" t="n" s="11">
-        <v>-0.423</v>
+        <v>-0.577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" t="n" s="11">
-        <v>-0.363</v>
+        <v>-0.665</v>
       </c>
       <c r="C10" t="n" s="11">
-        <v>-0.129</v>
+        <v>-0.29</v>
       </c>
       <c r="D10" t="n" s="11">
         <v>0.0</v>
@@ -1661,33 +1661,33 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="n" s="11">
-        <v>-0.194</v>
+        <v>-0.086</v>
       </c>
       <c r="L10" t="n" s="11">
-        <v>0.336</v>
+        <v>0.106</v>
       </c>
       <c r="M10" t="n" s="11">
-        <v>-0.045</v>
+        <v>-0.119</v>
       </c>
       <c r="N10" t="n" s="11">
-        <v>-1.088</v>
+        <v>-1.128</v>
       </c>
       <c r="O10" t="n" s="11">
-        <v>-0.272</v>
+        <v>-0.435</v>
       </c>
       <c r="P10" t="n" s="11">
-        <v>-0.423</v>
+        <v>-0.584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" t="n" s="11">
-        <v>-0.382</v>
+        <v>-0.688</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>-0.132</v>
+        <v>-0.312</v>
       </c>
       <c r="D11" t="n" s="11">
         <v>0.0</v>
@@ -1711,33 +1711,33 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="n" s="11">
-        <v>-0.282</v>
+        <v>-0.175</v>
       </c>
       <c r="L11" t="n" s="11">
-        <v>0.324</v>
+        <v>0.101</v>
       </c>
       <c r="M11" t="n" s="11">
-        <v>-0.073</v>
+        <v>-0.146</v>
       </c>
       <c r="N11" t="n" s="11">
-        <v>-1.096</v>
+        <v>-1.151</v>
       </c>
       <c r="O11" t="n" s="11">
-        <v>-0.291</v>
+        <v>-0.46</v>
       </c>
       <c r="P11" t="n" s="11">
-        <v>-0.412</v>
+        <v>-0.569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" t="n" s="11">
-        <v>-0.423</v>
+        <v>-0.723</v>
       </c>
       <c r="C12" t="n" s="11">
-        <v>-0.134</v>
+        <v>-0.312</v>
       </c>
       <c r="D12" t="n" s="11">
         <v>0.0</v>
@@ -1761,33 +1761,33 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="n" s="11">
-        <v>-0.306</v>
+        <v>-0.233</v>
       </c>
       <c r="L12" t="n" s="11">
-        <v>0.332</v>
+        <v>0.118</v>
       </c>
       <c r="M12" t="n" s="11">
-        <v>-0.09</v>
+        <v>-0.174</v>
       </c>
       <c r="N12" t="n" s="11">
-        <v>-1.126</v>
+        <v>-1.171</v>
       </c>
       <c r="O12" t="n" s="11">
-        <v>-0.307</v>
+        <v>-0.467</v>
       </c>
       <c r="P12" t="n" s="11">
-        <v>-0.397</v>
+        <v>-0.545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" t="n" s="11">
-        <v>-0.45</v>
+        <v>-0.726</v>
       </c>
       <c r="C13" t="n" s="11">
-        <v>-0.15</v>
+        <v>-0.313</v>
       </c>
       <c r="D13" t="n" s="11">
         <v>0.0</v>
@@ -1811,33 +1811,33 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n" s="11">
-        <v>-0.317</v>
+        <v>-0.19</v>
       </c>
       <c r="L13" t="n" s="11">
-        <v>0.368</v>
+        <v>0.116</v>
       </c>
       <c r="M13" t="n" s="11">
-        <v>-0.113</v>
+        <v>-0.178</v>
       </c>
       <c r="N13" t="n" s="11">
-        <v>-1.147</v>
+        <v>-1.18</v>
       </c>
       <c r="O13" t="n" s="11">
-        <v>-0.277</v>
+        <v>-0.447</v>
       </c>
       <c r="P13" t="n" s="11">
-        <v>-0.364</v>
+        <v>-0.527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" t="n" s="11">
-        <v>-0.488</v>
+        <v>-0.728</v>
       </c>
       <c r="C14" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.326</v>
       </c>
       <c r="D14" t="n" s="11">
         <v>0.0</v>
@@ -1861,33 +1861,33 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="n" s="11">
-        <v>-0.354</v>
+        <v>-0.206</v>
       </c>
       <c r="L14" t="n" s="11">
-        <v>0.358</v>
+        <v>0.088</v>
       </c>
       <c r="M14" t="n" s="11">
-        <v>-0.144</v>
+        <v>-0.181</v>
       </c>
       <c r="N14" t="n" s="11">
-        <v>-1.182</v>
+        <v>-1.186</v>
       </c>
       <c r="O14" t="n" s="11">
-        <v>-0.247</v>
+        <v>-0.454</v>
       </c>
       <c r="P14" t="n" s="11">
-        <v>-0.33</v>
+        <v>-0.527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n" s="11">
-        <v>-0.491</v>
+        <v>-0.744</v>
       </c>
       <c r="C15" t="n" s="11">
-        <v>-0.18</v>
+        <v>-0.329</v>
       </c>
       <c r="D15" t="n" s="11">
         <v>0.0</v>
@@ -1911,33 +1911,33 @@
         <v>0.0</v>
       </c>
       <c r="K15" t="n" s="11">
-        <v>-0.347</v>
+        <v>-0.248</v>
       </c>
       <c r="L15" t="n" s="11">
-        <v>0.353</v>
+        <v>0.105</v>
       </c>
       <c r="M15" t="n" s="11">
-        <v>-0.148</v>
+        <v>-0.191</v>
       </c>
       <c r="N15" t="n" s="11">
-        <v>-1.181</v>
+        <v>-1.192</v>
       </c>
       <c r="O15" t="n" s="11">
-        <v>-0.235</v>
+        <v>-0.459</v>
       </c>
       <c r="P15" t="n" s="11">
-        <v>-0.319</v>
+        <v>-0.515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" t="n" s="11">
-        <v>-0.527</v>
+        <v>-0.752</v>
       </c>
       <c r="C16" t="n" s="11">
-        <v>-0.206</v>
+        <v>-0.343</v>
       </c>
       <c r="D16" t="n" s="11">
         <v>0.0</v>
@@ -1961,33 +1961,33 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n" s="11">
-        <v>-0.369</v>
+        <v>-0.26</v>
       </c>
       <c r="L16" t="n" s="11">
-        <v>0.331</v>
+        <v>0.113</v>
       </c>
       <c r="M16" t="n" s="11">
-        <v>-0.167</v>
+        <v>-0.202</v>
       </c>
       <c r="N16" t="n" s="11">
-        <v>-1.205</v>
+        <v>-1.207</v>
       </c>
       <c r="O16" t="n" s="11">
-        <v>-0.252</v>
+        <v>-0.461</v>
       </c>
       <c r="P16" t="n" s="11">
-        <v>-0.296</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B17" t="n" s="11">
-        <v>-0.513</v>
+        <v>-0.753</v>
       </c>
       <c r="C17" t="n" s="11">
-        <v>-0.204</v>
+        <v>-0.341</v>
       </c>
       <c r="D17" t="n" s="11">
         <v>0.0</v>
@@ -2011,33 +2011,33 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n" s="11">
-        <v>-0.377</v>
+        <v>-0.219</v>
       </c>
       <c r="L17" t="n" s="11">
-        <v>0.325</v>
+        <v>0.116</v>
       </c>
       <c r="M17" t="n" s="11">
-        <v>-0.167</v>
+        <v>-0.2</v>
       </c>
       <c r="N17" t="n" s="11">
-        <v>-1.208</v>
+        <v>-1.203</v>
       </c>
       <c r="O17" t="n" s="11">
-        <v>-0.267</v>
+        <v>-0.461</v>
       </c>
       <c r="P17" t="n" s="11">
-        <v>-0.296</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" t="n" s="11">
-        <v>-0.487</v>
+        <v>-0.76</v>
       </c>
       <c r="C18" t="n" s="11">
-        <v>-0.183</v>
+        <v>-0.344</v>
       </c>
       <c r="D18" t="n" s="11">
         <v>0.0</v>
@@ -2061,33 +2061,33 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n" s="11">
-        <v>-0.277</v>
+        <v>-0.186</v>
       </c>
       <c r="L18" t="n" s="11">
-        <v>0.227</v>
+        <v>0.071</v>
       </c>
       <c r="M18" t="n" s="11">
-        <v>-0.147</v>
+        <v>-0.201</v>
       </c>
       <c r="N18" t="n" s="11">
-        <v>-1.185</v>
+        <v>-1.211</v>
       </c>
       <c r="O18" t="n" s="11">
-        <v>-0.253</v>
+        <v>-0.45</v>
       </c>
       <c r="P18" t="n" s="11">
-        <v>-0.322</v>
+        <v>-0.497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" t="n" s="11">
-        <v>-0.49</v>
+        <v>-0.769</v>
       </c>
       <c r="C19" t="n" s="11">
-        <v>-0.188</v>
+        <v>-0.348</v>
       </c>
       <c r="D19" t="n" s="11">
         <v>0.0</v>
@@ -2111,33 +2111,33 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="n" s="11">
-        <v>-0.286</v>
+        <v>-0.196</v>
       </c>
       <c r="L19" t="n" s="11">
-        <v>0.225</v>
+        <v>0.073</v>
       </c>
       <c r="M19" t="n" s="11">
-        <v>-0.145</v>
+        <v>-0.21</v>
       </c>
       <c r="N19" t="n" s="11">
-        <v>-1.18</v>
+        <v>-1.219</v>
       </c>
       <c r="O19" t="n" s="11">
-        <v>-0.255</v>
+        <v>-0.464</v>
       </c>
       <c r="P19" t="n" s="11">
-        <v>-0.333</v>
+        <v>-0.493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" t="n" s="11">
-        <v>-0.474</v>
+        <v>-0.767</v>
       </c>
       <c r="C20" t="n" s="11">
-        <v>-0.181</v>
+        <v>-0.346</v>
       </c>
       <c r="D20" t="n" s="11">
         <v>0.0</v>
@@ -2161,33 +2161,33 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n" s="11">
-        <v>-0.233</v>
+        <v>-0.195</v>
       </c>
       <c r="L20" t="n" s="11">
-        <v>0.226</v>
+        <v>0.064</v>
       </c>
       <c r="M20" t="n" s="11">
-        <v>-0.136</v>
+        <v>-0.204</v>
       </c>
       <c r="N20" t="n" s="11">
-        <v>-1.168</v>
+        <v>-1.214</v>
       </c>
       <c r="O20" t="n" s="11">
-        <v>-0.252</v>
+        <v>-0.466</v>
       </c>
       <c r="P20" t="n" s="11">
-        <v>-0.352</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" t="n" s="11">
-        <v>-0.463</v>
+        <v>-0.745</v>
       </c>
       <c r="C21" t="n" s="11">
-        <v>-0.171</v>
+        <v>-0.335</v>
       </c>
       <c r="D21" t="n" s="11">
         <v>0.0</v>
@@ -2211,33 +2211,33 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="n" s="11">
-        <v>-0.212</v>
+        <v>-0.139</v>
       </c>
       <c r="L21" t="n" s="11">
-        <v>0.215</v>
+        <v>0.058</v>
       </c>
       <c r="M21" t="n" s="11">
-        <v>-0.121</v>
+        <v>-0.195</v>
       </c>
       <c r="N21" t="n" s="11">
-        <v>-1.158</v>
+        <v>-1.203</v>
       </c>
       <c r="O21" t="n" s="11">
-        <v>-0.245</v>
+        <v>-0.458</v>
       </c>
       <c r="P21" t="n" s="11">
-        <v>-0.361</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" t="n" s="11">
-        <v>-0.433</v>
+        <v>-0.72</v>
       </c>
       <c r="C22" t="n" s="11">
-        <v>-0.167</v>
+        <v>-0.324</v>
       </c>
       <c r="D22" t="n" s="11">
         <v>0.0</v>
@@ -2261,33 +2261,33 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n" s="11">
-        <v>-0.189</v>
+        <v>-0.101</v>
       </c>
       <c r="L22" t="n" s="11">
-        <v>0.195</v>
+        <v>0.044</v>
       </c>
       <c r="M22" t="n" s="11">
-        <v>-0.101</v>
+        <v>-0.173</v>
       </c>
       <c r="N22" t="n" s="11">
-        <v>-1.138</v>
+        <v>-1.182</v>
       </c>
       <c r="O22" t="n" s="11">
-        <v>-0.256</v>
+        <v>-0.438</v>
       </c>
       <c r="P22" t="n" s="11">
-        <v>-0.386</v>
+        <v>-0.534</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" t="n" s="11">
-        <v>-0.417</v>
+        <v>-0.699</v>
       </c>
       <c r="C23" t="n" s="11">
-        <v>-0.151</v>
+        <v>-0.313</v>
       </c>
       <c r="D23" t="n" s="11">
         <v>0.0</v>
@@ -2311,33 +2311,33 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="n" s="11">
-        <v>-0.173</v>
+        <v>-0.089</v>
       </c>
       <c r="L23" t="n" s="11">
-        <v>0.204</v>
+        <v>0.048</v>
       </c>
       <c r="M23" t="n" s="11">
-        <v>-0.089</v>
+        <v>-0.164</v>
       </c>
       <c r="N23" t="n" s="11">
-        <v>-1.122</v>
+        <v>-1.166</v>
       </c>
       <c r="O23" t="n" s="11">
-        <v>-0.263</v>
+        <v>-0.437</v>
       </c>
       <c r="P23" t="n" s="11">
-        <v>-0.488</v>
+        <v>-0.559</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" t="n" s="11">
-        <v>-0.405</v>
+        <v>-0.687</v>
       </c>
       <c r="C24" t="n" s="11">
-        <v>-0.143</v>
+        <v>-0.304</v>
       </c>
       <c r="D24" t="n" s="11">
         <v>0.0</v>
@@ -2361,33 +2361,33 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="n" s="11">
-        <v>-0.163</v>
+        <v>-0.074</v>
       </c>
       <c r="L24" t="n" s="11">
-        <v>0.225</v>
+        <v>0.033</v>
       </c>
       <c r="M24" t="n" s="11">
-        <v>-0.071</v>
+        <v>-0.146</v>
       </c>
       <c r="N24" t="n" s="11">
-        <v>-1.115</v>
+        <v>-1.157</v>
       </c>
       <c r="O24" t="n" s="11">
-        <v>-0.276</v>
+        <v>-0.442</v>
       </c>
       <c r="P24" t="n" s="11">
-        <v>-0.497</v>
+        <v>-0.563</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" t="n" s="11">
-        <v>-0.397</v>
+        <v>-0.683</v>
       </c>
       <c r="C25" t="n" s="11">
-        <v>-0.146</v>
+        <v>-0.305</v>
       </c>
       <c r="D25" t="n" s="11">
         <v>0.0</v>
@@ -2411,33 +2411,33 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n" s="11">
-        <v>-0.169</v>
+        <v>-0.088</v>
       </c>
       <c r="L25" t="n" s="11">
-        <v>0.298</v>
+        <v>0.03</v>
       </c>
       <c r="M25" t="n" s="11">
-        <v>-0.069</v>
+        <v>-0.159</v>
       </c>
       <c r="N25" t="n" s="11">
-        <v>-1.112</v>
+        <v>-1.154</v>
       </c>
       <c r="O25" t="n" s="11">
-        <v>-0.29</v>
+        <v>-0.443</v>
       </c>
       <c r="P25" t="n" s="11">
-        <v>-0.51</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="11">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B26" t="n" s="11">
-        <v>-0.389</v>
+        <v>-0.674</v>
       </c>
       <c r="C26" t="n" s="11">
-        <v>-0.147</v>
+        <v>-0.298</v>
       </c>
       <c r="D26" t="n" s="11">
         <v>0.0</v>
@@ -2461,33 +2461,33 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n" s="11">
-        <v>-0.152</v>
+        <v>-0.074</v>
       </c>
       <c r="L26" t="n" s="11">
-        <v>0.359</v>
+        <v>0.078</v>
       </c>
       <c r="M26" t="n" s="11">
-        <v>-0.066</v>
+        <v>-0.156</v>
       </c>
       <c r="N26" t="n" s="11">
-        <v>-1.104</v>
+        <v>-1.154</v>
       </c>
       <c r="O26" t="n" s="11">
-        <v>-0.28</v>
+        <v>-0.441</v>
       </c>
       <c r="P26" t="n" s="11">
-        <v>-0.515</v>
+        <v>-0.575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="11">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="11">
-        <v>-0.386</v>
+        <v>-0.678</v>
       </c>
       <c r="C27" t="n" s="11">
-        <v>-0.136</v>
+        <v>-0.301</v>
       </c>
       <c r="D27" t="n" s="11">
         <v>0.0</v>
@@ -2511,33 +2511,33 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n" s="11">
-        <v>-0.143</v>
+        <v>-0.063</v>
       </c>
       <c r="L27" t="n" s="11">
-        <v>0.361</v>
+        <v>0.08</v>
       </c>
       <c r="M27" t="n" s="11">
-        <v>-0.052</v>
+        <v>-0.14</v>
       </c>
       <c r="N27" t="n" s="11">
-        <v>-1.097</v>
+        <v>-1.148</v>
       </c>
       <c r="O27" t="n" s="11">
-        <v>-0.278</v>
+        <v>-0.435</v>
       </c>
       <c r="P27" t="n" s="11">
-        <v>-0.511</v>
+        <v>-0.566</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="11">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="11">
-        <v>-0.378</v>
+        <v>-0.675</v>
       </c>
       <c r="C28" t="n" s="11">
-        <v>-0.136</v>
+        <v>-0.3</v>
       </c>
       <c r="D28" t="n" s="11">
         <v>0.0</v>
@@ -2561,22 +2561,22 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n" s="11">
-        <v>-0.152</v>
+        <v>-0.059</v>
       </c>
       <c r="L28" t="n" s="11">
-        <v>0.352</v>
+        <v>0.078</v>
       </c>
       <c r="M28" t="n" s="11">
-        <v>-0.062</v>
+        <v>-0.13</v>
       </c>
       <c r="N28" t="n" s="11">
-        <v>-1.094</v>
+        <v>-1.14</v>
       </c>
       <c r="O28" t="n" s="11">
-        <v>-0.284</v>
+        <v>-0.45</v>
       </c>
       <c r="P28" t="n" s="11">
-        <v>-0.511</v>
+        <v>-0.575</v>
       </c>
     </row>
     <row r="29">
@@ -2584,10 +2584,10 @@
         <v>66</v>
       </c>
       <c r="B29" t="n" s="11">
-        <v>-0.375</v>
+        <v>-0.657</v>
       </c>
       <c r="C29" t="n" s="11">
-        <v>-0.135</v>
+        <v>-0.3</v>
       </c>
       <c r="D29" t="n" s="11">
         <v>0.0</v>
@@ -2611,22 +2611,22 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="n" s="11">
-        <v>-0.131</v>
+        <v>-0.053</v>
       </c>
       <c r="L29" t="n" s="11">
-        <v>0.356</v>
+        <v>0.079</v>
       </c>
       <c r="M29" t="n" s="11">
-        <v>-0.052</v>
+        <v>-0.147</v>
       </c>
       <c r="N29" t="n" s="11">
-        <v>-1.087</v>
+        <v>-1.147</v>
       </c>
       <c r="O29" t="n" s="11">
-        <v>-0.273</v>
+        <v>-0.46</v>
       </c>
       <c r="P29" t="n" s="11">
-        <v>-0.492</v>
+        <v>-0.589</v>
       </c>
     </row>
     <row r="30">
@@ -2634,10 +2634,10 @@
         <v>67</v>
       </c>
       <c r="B30" t="n" s="11">
-        <v>-0.384</v>
+        <v>-0.659</v>
       </c>
       <c r="C30" t="n" s="11">
-        <v>-0.138</v>
+        <v>-0.297</v>
       </c>
       <c r="D30" t="n" s="11">
         <v>0.0</v>
@@ -2661,22 +2661,22 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n" s="11">
-        <v>-0.122</v>
+        <v>-0.053</v>
       </c>
       <c r="L30" t="n" s="11">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="M30" t="n" s="11">
-        <v>-0.033</v>
+        <v>-0.146</v>
       </c>
       <c r="N30" t="n" s="11">
-        <v>-1.081</v>
+        <v>-1.147</v>
       </c>
       <c r="O30" t="n" s="11">
-        <v>-0.268</v>
+        <v>-0.452</v>
       </c>
       <c r="P30" t="n" s="11">
-        <v>-0.486</v>
+        <v>-0.587</v>
       </c>
     </row>
     <row r="31">
@@ -2684,10 +2684,10 @@
         <v>68</v>
       </c>
       <c r="B31" t="n" s="11">
-        <v>-0.37</v>
+        <v>-0.671</v>
       </c>
       <c r="C31" t="n" s="11">
-        <v>-0.131</v>
+        <v>-0.3</v>
       </c>
       <c r="D31" t="n" s="11">
         <v>0.0</v>
@@ -2711,22 +2711,22 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n" s="11">
-        <v>-0.124</v>
+        <v>-0.076</v>
       </c>
       <c r="L31" t="n" s="11">
-        <v>0.349</v>
+        <v>0.078</v>
       </c>
       <c r="M31" t="n" s="11">
-        <v>-0.034</v>
+        <v>-0.148</v>
       </c>
       <c r="N31" t="n" s="11">
-        <v>-1.078</v>
+        <v>-1.152</v>
       </c>
       <c r="O31" t="n" s="11">
-        <v>-0.276</v>
+        <v>-0.458</v>
       </c>
       <c r="P31" t="n" s="11">
-        <v>-0.473</v>
+        <v>-0.589</v>
       </c>
     </row>
     <row r="32">
@@ -2734,10 +2734,10 @@
         <v>69</v>
       </c>
       <c r="B32" t="n" s="11">
-        <v>-0.383</v>
+        <v>-0.673</v>
       </c>
       <c r="C32" t="n" s="11">
-        <v>-0.139</v>
+        <v>-0.299</v>
       </c>
       <c r="D32" t="n" s="11">
         <v>0.0</v>
@@ -2761,22 +2761,22 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="n" s="11">
-        <v>-0.114</v>
+        <v>-0.092</v>
       </c>
       <c r="L32" t="n" s="11">
-        <v>0.352</v>
+        <v>0.079</v>
       </c>
       <c r="M32" t="n" s="11">
-        <v>-0.028</v>
+        <v>-0.148</v>
       </c>
       <c r="N32" t="n" s="11">
-        <v>-1.077</v>
+        <v>-1.15</v>
       </c>
       <c r="O32" t="n" s="11">
-        <v>-0.272</v>
+        <v>-0.459</v>
       </c>
       <c r="P32" t="n" s="11">
-        <v>-0.467</v>
+        <v>-0.586</v>
       </c>
     </row>
     <row r="33">
@@ -2784,10 +2784,10 @@
         <v>70</v>
       </c>
       <c r="B33" t="n" s="11">
-        <v>-0.364</v>
+        <v>-0.655</v>
       </c>
       <c r="C33" t="n" s="11">
-        <v>-0.128</v>
+        <v>-0.297</v>
       </c>
       <c r="D33" t="n" s="11">
         <v>0.0</v>
@@ -2811,22 +2811,22 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n" s="11">
-        <v>-0.13</v>
+        <v>-0.054</v>
       </c>
       <c r="L33" t="n" s="11">
-        <v>0.346</v>
+        <v>0.075</v>
       </c>
       <c r="M33" t="n" s="11">
-        <v>-0.039</v>
+        <v>-0.14</v>
       </c>
       <c r="N33" t="n" s="11">
-        <v>-1.074</v>
+        <v>-1.137</v>
       </c>
       <c r="O33" t="n" s="11">
-        <v>-0.263</v>
+        <v>-0.456</v>
       </c>
       <c r="P33" t="n" s="11">
-        <v>-0.473</v>
+        <v>-0.595</v>
       </c>
     </row>
     <row r="34">
@@ -2834,10 +2834,10 @@
         <v>71</v>
       </c>
       <c r="B34" t="n" s="11">
-        <v>-0.377</v>
+        <v>-0.664</v>
       </c>
       <c r="C34" t="n" s="11">
-        <v>-0.137</v>
+        <v>-0.297</v>
       </c>
       <c r="D34" t="n" s="11">
         <v>0.0</v>
@@ -2861,22 +2861,22 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n" s="11">
-        <v>-0.165</v>
+        <v>-0.103</v>
       </c>
       <c r="L34" t="n" s="11">
-        <v>0.334</v>
+        <v>0.074</v>
       </c>
       <c r="M34" t="n" s="11">
-        <v>-0.056</v>
+        <v>-0.144</v>
       </c>
       <c r="N34" t="n" s="11">
-        <v>-1.09</v>
+        <v>-1.147</v>
       </c>
       <c r="O34" t="n" s="11">
-        <v>-0.281</v>
+        <v>-0.451</v>
       </c>
       <c r="P34" t="n" s="11">
-        <v>-0.485</v>
+        <v>-0.593</v>
       </c>
     </row>
     <row r="35">
@@ -2884,10 +2884,10 @@
         <v>72</v>
       </c>
       <c r="B35" t="n" s="11">
-        <v>-0.41</v>
+        <v>-0.705</v>
       </c>
       <c r="C35" t="n" s="11">
-        <v>-0.142</v>
+        <v>-0.323</v>
       </c>
       <c r="D35" t="n" s="11">
         <v>0.0</v>
@@ -2911,33 +2911,33 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="n" s="11">
-        <v>-0.275</v>
+        <v>-0.204</v>
       </c>
       <c r="L35" t="n" s="11">
-        <v>0.327</v>
+        <v>0.067</v>
       </c>
       <c r="M35" t="n" s="11">
-        <v>-0.071</v>
+        <v>-0.168</v>
       </c>
       <c r="N35" t="n" s="11">
-        <v>-1.104</v>
+        <v>-1.165</v>
       </c>
       <c r="O35" t="n" s="11">
-        <v>-0.294</v>
+        <v>-0.467</v>
       </c>
       <c r="P35" t="n" s="11">
-        <v>-0.457</v>
+        <v>-0.572</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="11">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n" s="11">
-        <v>-0.432</v>
+        <v>-0.582</v>
       </c>
       <c r="C36" t="n" s="11">
-        <v>-0.144</v>
+        <v>-0.261</v>
       </c>
       <c r="D36" t="n" s="11">
         <v>0.0</v>
@@ -2961,33 +2961,33 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n" s="11">
-        <v>-0.298</v>
+        <v>0.003</v>
       </c>
       <c r="L36" t="n" s="11">
-        <v>0.32</v>
+        <v>0.087</v>
       </c>
       <c r="M36" t="n" s="11">
-        <v>-0.091</v>
+        <v>-0.093</v>
       </c>
       <c r="N36" t="n" s="11">
-        <v>-1.125</v>
+        <v>-1.077</v>
       </c>
       <c r="O36" t="n" s="11">
-        <v>-0.311</v>
+        <v>-0.5</v>
       </c>
       <c r="P36" t="n" s="11">
-        <v>-0.45</v>
+        <v>-0.622</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="n" s="11">
-        <v>-0.469</v>
+        <v>-0.621</v>
       </c>
       <c r="C37" t="n" s="11">
-        <v>-0.173</v>
+        <v>-0.281</v>
       </c>
       <c r="D37" t="n" s="11">
         <v>0.0</v>
@@ -3011,33 +3011,33 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n" s="11">
-        <v>-0.332</v>
+        <v>-0.049</v>
       </c>
       <c r="L37" t="n" s="11">
-        <v>0.345</v>
+        <v>0.081</v>
       </c>
       <c r="M37" t="n" s="11">
-        <v>-0.113</v>
+        <v>-0.096</v>
       </c>
       <c r="N37" t="n" s="11">
-        <v>-1.147</v>
+        <v>-1.104</v>
       </c>
       <c r="O37" t="n" s="11">
-        <v>-0.313</v>
+        <v>-0.493</v>
       </c>
       <c r="P37" t="n" s="11">
-        <v>-0.429</v>
+        <v>-0.599</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="11">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B38" t="n" s="11">
-        <v>-0.503</v>
+        <v>-0.584</v>
       </c>
       <c r="C38" t="n" s="11">
-        <v>-0.192</v>
+        <v>-0.264</v>
       </c>
       <c r="D38" t="n" s="11">
         <v>0.0</v>
@@ -3061,33 +3061,33 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n" s="11">
-        <v>-0.357</v>
+        <v>0.036</v>
       </c>
       <c r="L38" t="n" s="11">
-        <v>0.397</v>
+        <v>0.073</v>
       </c>
       <c r="M38" t="n" s="11">
-        <v>-0.149</v>
+        <v>-0.035</v>
       </c>
       <c r="N38" t="n" s="11">
-        <v>-1.178</v>
+        <v>-1.061</v>
       </c>
       <c r="O38" t="n" s="11">
-        <v>-0.266</v>
+        <v>-0.489</v>
       </c>
       <c r="P38" t="n" s="11">
-        <v>-0.383</v>
+        <v>-0.597</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="n" s="11">
-        <v>-0.53</v>
+        <v>-0.588</v>
       </c>
       <c r="C39" t="n" s="11">
-        <v>-0.214</v>
+        <v>-0.267</v>
       </c>
       <c r="D39" t="n" s="11">
         <v>0.0</v>
@@ -3111,33 +3111,33 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n" s="11">
-        <v>-0.371</v>
+        <v>0.0</v>
       </c>
       <c r="L39" t="n" s="11">
-        <v>0.359</v>
+        <v>0.072</v>
       </c>
       <c r="M39" t="n" s="11">
-        <v>-0.177</v>
+        <v>-0.057</v>
       </c>
       <c r="N39" t="n" s="11">
-        <v>-1.209</v>
+        <v>-1.072</v>
       </c>
       <c r="O39" t="n" s="11">
-        <v>-0.262</v>
+        <v>-0.473</v>
       </c>
       <c r="P39" t="n" s="11">
-        <v>-0.358</v>
+        <v>-0.577</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" t="n" s="11">
-        <v>-0.547</v>
+        <v>-0.622</v>
       </c>
       <c r="C40" t="n" s="11">
-        <v>-0.217</v>
+        <v>-0.281</v>
       </c>
       <c r="D40" t="n" s="11">
         <v>0.0</v>
@@ -3161,33 +3161,33 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="n" s="11">
-        <v>-0.399</v>
+        <v>-0.098</v>
       </c>
       <c r="L40" t="n" s="11">
-        <v>0.321</v>
+        <v>0.061</v>
       </c>
       <c r="M40" t="n" s="11">
-        <v>-0.179</v>
+        <v>-0.09</v>
       </c>
       <c r="N40" t="n" s="11">
-        <v>-1.214</v>
+        <v>-1.1</v>
       </c>
       <c r="O40" t="n" s="11">
-        <v>-0.269</v>
+        <v>-0.507</v>
       </c>
       <c r="P40" t="n" s="11">
-        <v>-0.336</v>
+        <v>-0.582</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="n" s="11">
-        <v>-0.521</v>
+        <v>-0.624</v>
       </c>
       <c r="C41" t="n" s="11">
-        <v>-0.208</v>
+        <v>-0.284</v>
       </c>
       <c r="D41" t="n" s="11">
         <v>0.0</v>
@@ -3211,33 +3211,33 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n" s="11">
-        <v>-0.3</v>
+        <v>-0.13</v>
       </c>
       <c r="L41" t="n" s="11">
-        <v>0.315</v>
+        <v>0.061</v>
       </c>
       <c r="M41" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.099</v>
       </c>
       <c r="N41" t="n" s="11">
-        <v>-1.21</v>
+        <v>-1.104</v>
       </c>
       <c r="O41" t="n" s="11">
-        <v>-0.264</v>
+        <v>-0.51</v>
       </c>
       <c r="P41" t="n" s="11">
-        <v>-0.351</v>
+        <v>-0.571</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="n" s="11">
-        <v>-0.539</v>
+        <v>-0.632</v>
       </c>
       <c r="C42" t="n" s="11">
-        <v>-0.209</v>
+        <v>-0.287</v>
       </c>
       <c r="D42" t="n" s="11">
         <v>0.0</v>
@@ -3261,33 +3261,33 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n" s="11">
-        <v>-0.336</v>
+        <v>-0.138</v>
       </c>
       <c r="L42" t="n" s="11">
-        <v>0.298</v>
+        <v>0.057</v>
       </c>
       <c r="M42" t="n" s="11">
-        <v>-0.182</v>
+        <v>-0.105</v>
       </c>
       <c r="N42" t="n" s="11">
-        <v>-1.216</v>
+        <v>-1.109</v>
       </c>
       <c r="O42" t="n" s="11">
-        <v>-0.282</v>
+        <v>-0.516</v>
       </c>
       <c r="P42" t="n" s="11">
-        <v>-0.355</v>
+        <v>-0.565</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" t="n" s="11">
-        <v>-0.53</v>
+        <v>-0.635</v>
       </c>
       <c r="C43" t="n" s="11">
-        <v>-0.209</v>
+        <v>-0.287</v>
       </c>
       <c r="D43" t="n" s="11">
         <v>0.0</v>
@@ -3311,33 +3311,33 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="n" s="11">
-        <v>-0.314</v>
+        <v>-0.135</v>
       </c>
       <c r="L43" t="n" s="11">
-        <v>0.309</v>
+        <v>0.056</v>
       </c>
       <c r="M43" t="n" s="11">
-        <v>-0.173</v>
+        <v>-0.107</v>
       </c>
       <c r="N43" t="n" s="11">
-        <v>-1.207</v>
+        <v>-1.114</v>
       </c>
       <c r="O43" t="n" s="11">
-        <v>-0.265</v>
+        <v>-0.518</v>
       </c>
       <c r="P43" t="n" s="11">
-        <v>-0.363</v>
+        <v>-0.562</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="n" s="11">
-        <v>-0.502</v>
+        <v>-0.638</v>
       </c>
       <c r="C44" t="n" s="11">
-        <v>-0.191</v>
+        <v>-0.289</v>
       </c>
       <c r="D44" t="n" s="11">
         <v>0.0</v>
@@ -3361,33 +3361,33 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="n" s="11">
-        <v>-0.233</v>
+        <v>-0.135</v>
       </c>
       <c r="L44" t="n" s="11">
-        <v>0.307</v>
+        <v>0.057</v>
       </c>
       <c r="M44" t="n" s="11">
-        <v>-0.137</v>
+        <v>-0.113</v>
       </c>
       <c r="N44" t="n" s="11">
-        <v>-1.172</v>
+        <v>-1.112</v>
       </c>
       <c r="O44" t="n" s="11">
-        <v>-0.248</v>
+        <v>-0.515</v>
       </c>
       <c r="P44" t="n" s="11">
-        <v>-0.39</v>
+        <v>-0.565</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" t="n" s="11">
-        <v>-0.511</v>
+        <v>-0.636</v>
       </c>
       <c r="C45" t="n" s="11">
-        <v>-0.197</v>
+        <v>-0.288</v>
       </c>
       <c r="D45" t="n" s="11">
         <v>0.0</v>
@@ -3411,33 +3411,33 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="n" s="11">
-        <v>-0.283</v>
+        <v>-0.135</v>
       </c>
       <c r="L45" t="n" s="11">
-        <v>0.301</v>
+        <v>0.055</v>
       </c>
       <c r="M45" t="n" s="11">
-        <v>-0.142</v>
+        <v>-0.113</v>
       </c>
       <c r="N45" t="n" s="11">
-        <v>-1.181</v>
+        <v>-1.115</v>
       </c>
       <c r="O45" t="n" s="11">
-        <v>-0.253</v>
+        <v>-0.519</v>
       </c>
       <c r="P45" t="n" s="11">
-        <v>-0.394</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="n" s="11">
-        <v>-0.475</v>
+        <v>-0.623</v>
       </c>
       <c r="C46" t="n" s="11">
-        <v>-0.179</v>
+        <v>-0.285</v>
       </c>
       <c r="D46" t="n" s="11">
         <v>0.0</v>
@@ -3461,33 +3461,33 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="n" s="11">
-        <v>-0.211</v>
+        <v>-0.125</v>
       </c>
       <c r="L46" t="n" s="11">
-        <v>0.276</v>
+        <v>0.062</v>
       </c>
       <c r="M46" t="n" s="11">
-        <v>-0.121</v>
+        <v>-0.104</v>
       </c>
       <c r="N46" t="n" s="11">
-        <v>-1.155</v>
+        <v>-1.108</v>
       </c>
       <c r="O46" t="n" s="11">
-        <v>-0.258</v>
+        <v>-0.51</v>
       </c>
       <c r="P46" t="n" s="11">
-        <v>-0.416</v>
+        <v>-0.561</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" t="n" s="11">
-        <v>-0.448</v>
+        <v>-0.616</v>
       </c>
       <c r="C47" t="n" s="11">
-        <v>-0.167</v>
+        <v>-0.282</v>
       </c>
       <c r="D47" t="n" s="11">
         <v>0.0</v>
@@ -3511,33 +3511,33 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="n" s="11">
-        <v>-0.195</v>
+        <v>-0.101</v>
       </c>
       <c r="L47" t="n" s="11">
-        <v>0.247</v>
+        <v>0.063</v>
       </c>
       <c r="M47" t="n" s="11">
-        <v>-0.103</v>
+        <v>-0.11</v>
       </c>
       <c r="N47" t="n" s="11">
-        <v>-1.133</v>
+        <v>-1.103</v>
       </c>
       <c r="O47" t="n" s="11">
-        <v>-0.256</v>
+        <v>-0.511</v>
       </c>
       <c r="P47" t="n" s="11">
-        <v>-0.436</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" t="n" s="11">
-        <v>-0.439</v>
+        <v>-0.617</v>
       </c>
       <c r="C48" t="n" s="11">
-        <v>-0.166</v>
+        <v>-0.283</v>
       </c>
       <c r="D48" t="n" s="11">
         <v>0.0</v>
@@ -3561,33 +3561,33 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="n" s="11">
-        <v>-0.184</v>
+        <v>-0.096</v>
       </c>
       <c r="L48" t="n" s="11">
-        <v>0.297</v>
+        <v>0.06</v>
       </c>
       <c r="M48" t="n" s="11">
-        <v>-0.098</v>
+        <v>-0.107</v>
       </c>
       <c r="N48" t="n" s="11">
-        <v>-1.127</v>
+        <v>-1.108</v>
       </c>
       <c r="O48" t="n" s="11">
-        <v>-0.269</v>
+        <v>-0.509</v>
       </c>
       <c r="P48" t="n" s="11">
-        <v>-0.454</v>
+        <v>-0.568</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" t="n" s="11">
-        <v>-0.431</v>
+        <v>-0.622</v>
       </c>
       <c r="C49" t="n" s="11">
-        <v>-0.161</v>
+        <v>-0.287</v>
       </c>
       <c r="D49" t="n" s="11">
         <v>0.0</v>
@@ -3611,33 +3611,33 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="n" s="11">
-        <v>-0.187</v>
+        <v>-0.062</v>
       </c>
       <c r="L49" t="n" s="11">
-        <v>0.293</v>
+        <v>0.066</v>
       </c>
       <c r="M49" t="n" s="11">
-        <v>-0.095</v>
+        <v>-0.09</v>
       </c>
       <c r="N49" t="n" s="11">
-        <v>-1.122</v>
+        <v>-1.098</v>
       </c>
       <c r="O49" t="n" s="11">
-        <v>-0.262</v>
+        <v>-0.495</v>
       </c>
       <c r="P49" t="n" s="11">
-        <v>-0.461</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" t="n" s="11">
-        <v>-0.419</v>
+        <v>-0.612</v>
       </c>
       <c r="C50" t="n" s="11">
-        <v>-0.161</v>
+        <v>-0.273</v>
       </c>
       <c r="D50" t="n" s="11">
         <v>0.0</v>
@@ -3661,33 +3661,33 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="n" s="11">
-        <v>-0.174</v>
+        <v>-0.087</v>
       </c>
       <c r="L50" t="n" s="11">
-        <v>0.322</v>
+        <v>0.069</v>
       </c>
       <c r="M50" t="n" s="11">
-        <v>-0.091</v>
+        <v>-0.104</v>
       </c>
       <c r="N50" t="n" s="11">
-        <v>-1.121</v>
+        <v>-1.099</v>
       </c>
       <c r="O50" t="n" s="11">
-        <v>-0.257</v>
+        <v>-0.5</v>
       </c>
       <c r="P50" t="n" s="11">
-        <v>-0.471</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" t="n" s="11">
-        <v>-0.408</v>
+        <v>-0.623</v>
       </c>
       <c r="C51" t="n" s="11">
-        <v>-0.158</v>
+        <v>-0.285</v>
       </c>
       <c r="D51" t="n" s="11">
         <v>0.0</v>
@@ -3711,33 +3711,33 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="n" s="11">
-        <v>-0.156</v>
+        <v>-0.072</v>
       </c>
       <c r="L51" t="n" s="11">
-        <v>0.343</v>
+        <v>0.069</v>
       </c>
       <c r="M51" t="n" s="11">
-        <v>-0.076</v>
+        <v>-0.103</v>
       </c>
       <c r="N51" t="n" s="11">
-        <v>-1.114</v>
+        <v>-1.102</v>
       </c>
       <c r="O51" t="n" s="11">
-        <v>-0.279</v>
+        <v>-0.502</v>
       </c>
       <c r="P51" t="n" s="11">
-        <v>-0.477</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" t="n" s="11">
-        <v>-0.398</v>
+        <v>-0.613</v>
       </c>
       <c r="C52" t="n" s="11">
-        <v>-0.157</v>
+        <v>-0.283</v>
       </c>
       <c r="D52" t="n" s="11">
         <v>0.0</v>
@@ -3761,33 +3761,33 @@
         <v>0.0</v>
       </c>
       <c r="K52" t="n" s="11">
-        <v>-0.156</v>
+        <v>-0.069</v>
       </c>
       <c r="L52" t="n" s="11">
-        <v>0.331</v>
+        <v>0.066</v>
       </c>
       <c r="M52" t="n" s="11">
-        <v>-0.078</v>
+        <v>-0.1</v>
       </c>
       <c r="N52" t="n" s="11">
-        <v>-1.104</v>
+        <v>-1.101</v>
       </c>
       <c r="O52" t="n" s="11">
-        <v>-0.279</v>
+        <v>-0.492</v>
       </c>
       <c r="P52" t="n" s="11">
-        <v>-0.477</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" t="n" s="11">
-        <v>-0.389</v>
+        <v>-0.613</v>
       </c>
       <c r="C53" t="n" s="11">
-        <v>-0.146</v>
+        <v>-0.281</v>
       </c>
       <c r="D53" t="n" s="11">
         <v>0.0</v>
@@ -3811,33 +3811,33 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="n" s="11">
-        <v>-0.147</v>
+        <v>-0.012</v>
       </c>
       <c r="L53" t="n" s="11">
-        <v>0.343</v>
+        <v>0.121</v>
       </c>
       <c r="M53" t="n" s="11">
-        <v>-0.073</v>
+        <v>-0.077</v>
       </c>
       <c r="N53" t="n" s="11">
-        <v>-1.095</v>
+        <v>-1.088</v>
       </c>
       <c r="O53" t="n" s="11">
-        <v>-0.263</v>
+        <v>-0.472</v>
       </c>
       <c r="P53" t="n" s="11">
-        <v>-0.445</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" t="n" s="11">
-        <v>-0.379</v>
+        <v>-0.61</v>
       </c>
       <c r="C54" t="n" s="11">
-        <v>-0.142</v>
+        <v>-0.274</v>
       </c>
       <c r="D54" t="n" s="11">
         <v>0.0</v>
@@ -3861,33 +3861,33 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="n" s="11">
-        <v>-0.121</v>
+        <v>-0.081</v>
       </c>
       <c r="L54" t="n" s="11">
-        <v>0.351</v>
+        <v>0.114</v>
       </c>
       <c r="M54" t="n" s="11">
-        <v>-0.023</v>
+        <v>-0.111</v>
       </c>
       <c r="N54" t="n" s="11">
-        <v>-1.078</v>
+        <v>-1.101</v>
       </c>
       <c r="O54" t="n" s="11">
-        <v>-0.263</v>
+        <v>-0.491</v>
       </c>
       <c r="P54" t="n" s="11">
-        <v>-0.428</v>
+        <v>-0.572</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" t="n" s="11">
-        <v>-0.373</v>
+        <v>-0.614</v>
       </c>
       <c r="C55" t="n" s="11">
-        <v>-0.137</v>
+        <v>-0.279</v>
       </c>
       <c r="D55" t="n" s="11">
         <v>0.0</v>
@@ -3911,33 +3911,33 @@
         <v>0.0</v>
       </c>
       <c r="K55" t="n" s="11">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="L55" t="n" s="11">
-        <v>0.354</v>
+        <v>0.111</v>
       </c>
       <c r="M55" t="n" s="11">
-        <v>-0.019</v>
+        <v>-0.114</v>
       </c>
       <c r="N55" t="n" s="11">
-        <v>-1.078</v>
+        <v>-1.106</v>
       </c>
       <c r="O55" t="n" s="11">
-        <v>-0.261</v>
+        <v>-0.496</v>
       </c>
       <c r="P55" t="n" s="11">
-        <v>-0.405</v>
+        <v>-0.566</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" t="n" s="11">
-        <v>-0.369</v>
+        <v>-0.603</v>
       </c>
       <c r="C56" t="n" s="11">
-        <v>-0.137</v>
+        <v>-0.269</v>
       </c>
       <c r="D56" t="n" s="11">
         <v>0.0</v>
@@ -3961,33 +3961,33 @@
         <v>0.0</v>
       </c>
       <c r="K56" t="n" s="11">
-        <v>-0.137</v>
+        <v>-0.072</v>
       </c>
       <c r="L56" t="n" s="11">
-        <v>0.341</v>
+        <v>0.116</v>
       </c>
       <c r="M56" t="n" s="11">
-        <v>-0.053</v>
+        <v>-0.106</v>
       </c>
       <c r="N56" t="n" s="11">
-        <v>-1.08</v>
+        <v>-1.095</v>
       </c>
       <c r="O56" t="n" s="11">
-        <v>-0.262</v>
+        <v>-0.487</v>
       </c>
       <c r="P56" t="n" s="11">
-        <v>-0.419</v>
+        <v>-0.573</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" t="n" s="11">
-        <v>-0.368</v>
+        <v>-0.62</v>
       </c>
       <c r="C57" t="n" s="11">
-        <v>-0.138</v>
+        <v>-0.28</v>
       </c>
       <c r="D57" t="n" s="11">
         <v>0.0</v>
@@ -4011,33 +4011,33 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="n" s="11">
-        <v>-0.145</v>
+        <v>-0.078</v>
       </c>
       <c r="L57" t="n" s="11">
-        <v>0.342</v>
+        <v>0.113</v>
       </c>
       <c r="M57" t="n" s="11">
-        <v>-0.052</v>
+        <v>-0.098</v>
       </c>
       <c r="N57" t="n" s="11">
-        <v>-1.074</v>
+        <v>-1.098</v>
       </c>
       <c r="O57" t="n" s="11">
-        <v>-0.256</v>
+        <v>-0.485</v>
       </c>
       <c r="P57" t="n" s="11">
-        <v>-0.413</v>
+        <v>-0.566</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" t="n" s="11">
-        <v>-0.386</v>
+        <v>-0.628</v>
       </c>
       <c r="C58" t="n" s="11">
-        <v>-0.139</v>
+        <v>-0.282</v>
       </c>
       <c r="D58" t="n" s="11">
         <v>0.0</v>
@@ -4061,33 +4061,33 @@
         <v>0.0</v>
       </c>
       <c r="K58" t="n" s="11">
-        <v>-0.188</v>
+        <v>-0.134</v>
       </c>
       <c r="L58" t="n" s="11">
-        <v>0.327</v>
+        <v>0.109</v>
       </c>
       <c r="M58" t="n" s="11">
-        <v>-0.065</v>
+        <v>-0.115</v>
       </c>
       <c r="N58" t="n" s="11">
-        <v>-1.088</v>
+        <v>-1.114</v>
       </c>
       <c r="O58" t="n" s="11">
-        <v>-0.282</v>
+        <v>-0.508</v>
       </c>
       <c r="P58" t="n" s="11">
-        <v>-0.413</v>
+        <v>-0.569</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="11">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B59" t="n" s="11">
-        <v>-0.396</v>
+        <v>-0.651</v>
       </c>
       <c r="C59" t="n" s="11">
-        <v>-0.143</v>
+        <v>-0.298</v>
       </c>
       <c r="D59" t="n" s="11">
         <v>0.0</v>
@@ -4111,33 +4111,33 @@
         <v>0.0</v>
       </c>
       <c r="K59" t="n" s="11">
-        <v>-1.256</v>
+        <v>-0.176</v>
       </c>
       <c r="L59" t="n" s="11">
-        <v>0.331</v>
+        <v>0.116</v>
       </c>
       <c r="M59" t="n" s="11">
-        <v>-0.069</v>
+        <v>-0.129</v>
       </c>
       <c r="N59" t="n" s="11">
-        <v>-1.09</v>
+        <v>-1.131</v>
       </c>
       <c r="O59" t="n" s="11">
-        <v>-0.288</v>
+        <v>-0.516</v>
       </c>
       <c r="P59" t="n" s="11">
-        <v>-0.407</v>
+        <v>-0.557</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="11">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B60" t="n" s="11">
-        <v>-0.43</v>
+        <v>-0.69</v>
       </c>
       <c r="C60" t="n" s="11">
-        <v>-0.148</v>
+        <v>-0.309</v>
       </c>
       <c r="D60" t="n" s="11">
         <v>0.0</v>
@@ -4161,33 +4161,33 @@
         <v>0.0</v>
       </c>
       <c r="K60" t="n" s="11">
-        <v>-0.244</v>
+        <v>-0.207</v>
       </c>
       <c r="L60" t="n" s="11">
-        <v>0.323</v>
+        <v>0.148</v>
       </c>
       <c r="M60" t="n" s="11">
-        <v>-0.085</v>
+        <v>-0.153</v>
       </c>
       <c r="N60" t="n" s="11">
-        <v>-1.118</v>
+        <v>-1.153</v>
       </c>
       <c r="O60" t="n" s="11">
-        <v>-0.31</v>
+        <v>-0.489</v>
       </c>
       <c r="P60" t="n" s="11">
-        <v>-0.382</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="11">
-        <v>-0.483</v>
+        <v>-0.685</v>
       </c>
       <c r="C61" t="n" s="11">
-        <v>-0.169</v>
+        <v>-0.312</v>
       </c>
       <c r="D61" t="n" s="11">
         <v>0.0</v>
@@ -4211,33 +4211,33 @@
         <v>0.0</v>
       </c>
       <c r="K61" t="n" s="11">
-        <v>-0.312</v>
+        <v>-0.186</v>
       </c>
       <c r="L61" t="n" s="11">
-        <v>0.356</v>
+        <v>0.149</v>
       </c>
       <c r="M61" t="n" s="11">
-        <v>-0.109</v>
+        <v>-0.151</v>
       </c>
       <c r="N61" t="n" s="11">
-        <v>-1.143</v>
+        <v>-1.148</v>
       </c>
       <c r="O61" t="n" s="11">
-        <v>-0.289</v>
+        <v>-0.481</v>
       </c>
       <c r="P61" t="n" s="11">
-        <v>-0.355</v>
+        <v>-0.533</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="11">
-        <v>-0.521</v>
+        <v>-0.713</v>
       </c>
       <c r="C62" t="n" s="11">
-        <v>-0.189</v>
+        <v>-0.324</v>
       </c>
       <c r="D62" t="n" s="11">
         <v>0.0</v>
@@ -4261,33 +4261,33 @@
         <v>0.0</v>
       </c>
       <c r="K62" t="n" s="11">
-        <v>-0.343</v>
+        <v>-0.224</v>
       </c>
       <c r="L62" t="n" s="11">
-        <v>0.354</v>
+        <v>0.168</v>
       </c>
       <c r="M62" t="n" s="11">
-        <v>-0.134</v>
+        <v>-0.174</v>
       </c>
       <c r="N62" t="n" s="11">
-        <v>-1.161</v>
+        <v>-1.177</v>
       </c>
       <c r="O62" t="n" s="11">
-        <v>-0.253</v>
+        <v>-0.463</v>
       </c>
       <c r="P62" t="n" s="11">
-        <v>-0.337</v>
+        <v>-0.517</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="11">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B63" t="n" s="11">
-        <v>-0.538</v>
+        <v>-0.722</v>
       </c>
       <c r="C63" t="n" s="11">
-        <v>-0.205</v>
+        <v>-0.328</v>
       </c>
       <c r="D63" t="n" s="11">
         <v>0.0</v>
@@ -4311,33 +4311,33 @@
         <v>0.0</v>
       </c>
       <c r="K63" t="n" s="11">
-        <v>-0.363</v>
+        <v>-0.241</v>
       </c>
       <c r="L63" t="n" s="11">
-        <v>0.346</v>
+        <v>0.183</v>
       </c>
       <c r="M63" t="n" s="11">
-        <v>-0.146</v>
+        <v>-0.175</v>
       </c>
       <c r="N63" t="n" s="11">
-        <v>-1.183</v>
+        <v>-1.179</v>
       </c>
       <c r="O63" t="n" s="11">
-        <v>-0.26</v>
+        <v>-0.45</v>
       </c>
       <c r="P63" t="n" s="11">
-        <v>-0.314</v>
+        <v>-0.508</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" t="n" s="11">
-        <v>-0.551</v>
+        <v>-0.742</v>
       </c>
       <c r="C64" t="n" s="11">
-        <v>-0.212</v>
+        <v>-0.341</v>
       </c>
       <c r="D64" t="n" s="11">
         <v>0.0</v>
@@ -4361,33 +4361,33 @@
         <v>0.0</v>
       </c>
       <c r="K64" t="n" s="11">
-        <v>-0.393</v>
+        <v>-0.244</v>
       </c>
       <c r="L64" t="n" s="11">
-        <v>0.331</v>
+        <v>0.173</v>
       </c>
       <c r="M64" t="n" s="11">
-        <v>-0.182</v>
+        <v>-0.19</v>
       </c>
       <c r="N64" t="n" s="11">
-        <v>-1.215</v>
+        <v>-1.193</v>
       </c>
       <c r="O64" t="n" s="11">
-        <v>-0.253</v>
+        <v>-0.443</v>
       </c>
       <c r="P64" t="n" s="11">
-        <v>-0.286</v>
+        <v>-0.491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B65" t="n" s="11">
-        <v>-0.6</v>
+        <v>-0.78</v>
       </c>
       <c r="C65" t="n" s="11">
-        <v>-0.243</v>
+        <v>-0.357</v>
       </c>
       <c r="D65" t="n" s="11">
         <v>0.0</v>
@@ -4411,33 +4411,33 @@
         <v>0.0</v>
       </c>
       <c r="K65" t="n" s="11">
-        <v>-0.417</v>
+        <v>-0.259</v>
       </c>
       <c r="L65" t="n" s="11">
-        <v>0.305</v>
+        <v>0.114</v>
       </c>
       <c r="M65" t="n" s="11">
-        <v>-0.21</v>
+        <v>-0.214</v>
       </c>
       <c r="N65" t="n" s="11">
-        <v>-1.257</v>
+        <v>-1.216</v>
       </c>
       <c r="O65" t="n" s="11">
-        <v>-0.288</v>
+        <v>-0.441</v>
       </c>
       <c r="P65" t="n" s="11">
-        <v>-0.271</v>
+        <v>-0.458</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B66" t="n" s="11">
-        <v>-0.605</v>
+        <v>-0.772</v>
       </c>
       <c r="C66" t="n" s="11">
-        <v>-0.254</v>
+        <v>-0.354</v>
       </c>
       <c r="D66" t="n" s="11">
         <v>0.0</v>
@@ -4461,33 +4461,33 @@
         <v>0.0</v>
       </c>
       <c r="K66" t="n" s="11">
-        <v>-0.42</v>
+        <v>-0.239</v>
       </c>
       <c r="L66" t="n" s="11">
-        <v>0.271</v>
+        <v>0.103</v>
       </c>
       <c r="M66" t="n" s="11">
-        <v>-0.217</v>
+        <v>-0.219</v>
       </c>
       <c r="N66" t="n" s="11">
-        <v>-1.251</v>
+        <v>-1.216</v>
       </c>
       <c r="O66" t="n" s="11">
-        <v>-0.314</v>
+        <v>-0.458</v>
       </c>
       <c r="P66" t="n" s="11">
-        <v>-0.286</v>
+        <v>-0.835</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="11">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B67" t="n" s="11">
-        <v>-0.592</v>
+        <v>-0.761</v>
       </c>
       <c r="C67" t="n" s="11">
-        <v>-0.252</v>
+        <v>-0.352</v>
       </c>
       <c r="D67" t="n" s="11">
         <v>0.0</v>
@@ -4511,33 +4511,33 @@
         <v>0.0</v>
       </c>
       <c r="K67" t="n" s="11">
-        <v>-0.379</v>
+        <v>-0.266</v>
       </c>
       <c r="L67" t="n" s="11">
-        <v>0.287</v>
+        <v>0.097</v>
       </c>
       <c r="M67" t="n" s="11">
-        <v>-0.203</v>
+        <v>-0.214</v>
       </c>
       <c r="N67" t="n" s="11">
-        <v>-1.24</v>
+        <v>-1.255</v>
       </c>
       <c r="O67" t="n" s="11">
-        <v>-0.323</v>
+        <v>-2.22</v>
       </c>
       <c r="P67" t="n" s="11">
-        <v>-0.294</v>
+        <v>-0.845</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" t="n" s="11">
-        <v>-0.569</v>
+        <v>-0.748</v>
       </c>
       <c r="C68" t="n" s="11">
-        <v>-0.238</v>
+        <v>-0.343</v>
       </c>
       <c r="D68" t="n" s="11">
         <v>0.0</v>
@@ -4561,33 +4561,33 @@
         <v>0.0</v>
       </c>
       <c r="K68" t="n" s="11">
-        <v>-0.338</v>
+        <v>-0.214</v>
       </c>
       <c r="L68" t="n" s="11">
-        <v>0.279</v>
+        <v>0.077</v>
       </c>
       <c r="M68" t="n" s="11">
-        <v>-0.187</v>
+        <v>-0.286</v>
       </c>
       <c r="N68" t="n" s="11">
-        <v>-1.224</v>
+        <v>-1.252</v>
       </c>
       <c r="O68" t="n" s="11">
-        <v>-0.31</v>
+        <v>-2.215</v>
       </c>
       <c r="P68" t="n" s="11">
-        <v>-0.315</v>
+        <v>-0.849</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69" t="n" s="11">
-        <v>-0.547</v>
+        <v>-0.715</v>
       </c>
       <c r="C69" t="n" s="11">
-        <v>-0.218</v>
+        <v>-0.324</v>
       </c>
       <c r="D69" t="n" s="11">
         <v>0.0</v>
@@ -4611,33 +4611,33 @@
         <v>0.0</v>
       </c>
       <c r="K69" t="n" s="11">
+        <v>-0.107</v>
+      </c>
+      <c r="L69" t="n" s="11">
+        <v>0.059</v>
+      </c>
+      <c r="M69" t="n" s="11">
         <v>-0.261</v>
       </c>
-      <c r="L69" t="n" s="11">
-        <v>0.268</v>
-      </c>
-      <c r="M69" t="n" s="11">
-        <v>-0.176</v>
-      </c>
       <c r="N69" t="n" s="11">
-        <v>-1.208</v>
+        <v>-1.223</v>
       </c>
       <c r="O69" t="n" s="11">
-        <v>-0.303</v>
+        <v>-2.199</v>
       </c>
       <c r="P69" t="n" s="11">
-        <v>-0.337</v>
+        <v>-0.878</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B70" t="n" s="11">
-        <v>-0.51</v>
+        <v>-0.704</v>
       </c>
       <c r="C70" t="n" s="11">
-        <v>-0.205</v>
+        <v>-0.327</v>
       </c>
       <c r="D70" t="n" s="11">
         <v>0.0</v>
@@ -4661,33 +4661,33 @@
         <v>0.0</v>
       </c>
       <c r="K70" t="n" s="11">
-        <v>-0.233</v>
+        <v>-0.095</v>
       </c>
       <c r="L70" t="n" s="11">
-        <v>0.215</v>
+        <v>0.041</v>
       </c>
       <c r="M70" t="n" s="11">
-        <v>-0.142</v>
+        <v>-0.247</v>
       </c>
       <c r="N70" t="n" s="11">
-        <v>-1.171</v>
+        <v>-1.209</v>
       </c>
       <c r="O70" t="n" s="11">
-        <v>-0.315</v>
+        <v>-2.171</v>
       </c>
       <c r="P70" t="n" s="11">
-        <v>-0.373</v>
+        <v>-0.901</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B71" t="n" s="11">
-        <v>-0.479</v>
+        <v>-0.686</v>
       </c>
       <c r="C71" t="n" s="11">
-        <v>-0.191</v>
+        <v>-0.312</v>
       </c>
       <c r="D71" t="n" s="11">
         <v>0.0</v>
@@ -4711,33 +4711,33 @@
         <v>0.0</v>
       </c>
       <c r="K71" t="n" s="11">
-        <v>-0.215</v>
+        <v>-0.071</v>
       </c>
       <c r="L71" t="n" s="11">
-        <v>0.191</v>
+        <v>0.065</v>
       </c>
       <c r="M71" t="n" s="11">
-        <v>-0.126</v>
+        <v>-0.236</v>
       </c>
       <c r="N71" t="n" s="11">
-        <v>-1.149</v>
+        <v>-1.194</v>
       </c>
       <c r="O71" t="n" s="11">
-        <v>-0.307</v>
+        <v>-0.362</v>
       </c>
       <c r="P71" t="n" s="11">
-        <v>-0.404</v>
+        <v>-0.908</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="11">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B72" t="n" s="11">
-        <v>-0.468</v>
+        <v>-0.676</v>
       </c>
       <c r="C72" t="n" s="11">
-        <v>-0.181</v>
+        <v>-0.308</v>
       </c>
       <c r="D72" t="n" s="11">
         <v>0.0</v>
@@ -4761,33 +4761,33 @@
         <v>0.0</v>
       </c>
       <c r="K72" t="n" s="11">
-        <v>-0.217</v>
+        <v>-0.07</v>
       </c>
       <c r="L72" t="n" s="11">
-        <v>0.313</v>
+        <v>0.068</v>
       </c>
       <c r="M72" t="n" s="11">
-        <v>-0.116</v>
+        <v>-0.229</v>
       </c>
       <c r="N72" t="n" s="11">
-        <v>-1.145</v>
+        <v>-1.19</v>
       </c>
       <c r="O72" t="n" s="11">
-        <v>-0.318</v>
+        <v>-0.315</v>
       </c>
       <c r="P72" t="n" s="11">
-        <v>-0.424</v>
+        <v>-0.923</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B73" t="n" s="11">
-        <v>-0.461</v>
+        <v>-0.662</v>
       </c>
       <c r="C73" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.3</v>
       </c>
       <c r="D73" t="n" s="11">
         <v>0.0</v>
@@ -4811,33 +4811,33 @@
         <v>0.0</v>
       </c>
       <c r="K73" t="n" s="11">
+        <v>-0.058</v>
+      </c>
+      <c r="L73" t="n" s="11">
+        <v>0.058</v>
+      </c>
+      <c r="M73" t="n" s="11">
         <v>-0.216</v>
       </c>
-      <c r="L73" t="n" s="11">
-        <v>0.302</v>
-      </c>
-      <c r="M73" t="n" s="11">
-        <v>-0.108</v>
-      </c>
       <c r="N73" t="n" s="11">
-        <v>-1.141</v>
+        <v>-1.179</v>
       </c>
       <c r="O73" t="n" s="11">
-        <v>-0.299</v>
+        <v>-0.313</v>
       </c>
       <c r="P73" t="n" s="11">
-        <v>-0.426</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B74" t="n" s="11">
-        <v>-0.454</v>
+        <v>-0.653</v>
       </c>
       <c r="C74" t="n" s="11">
-        <v>-0.179</v>
+        <v>-0.297</v>
       </c>
       <c r="D74" t="n" s="11">
         <v>0.0</v>
@@ -4861,33 +4861,33 @@
         <v>0.0</v>
       </c>
       <c r="K74" t="n" s="11">
-        <v>-0.2</v>
+        <v>-0.063</v>
       </c>
       <c r="L74" t="n" s="11">
-        <v>0.302</v>
+        <v>0.056</v>
       </c>
       <c r="M74" t="n" s="11">
-        <v>-0.098</v>
+        <v>-0.222</v>
       </c>
       <c r="N74" t="n" s="11">
-        <v>-1.126</v>
+        <v>-1.17</v>
       </c>
       <c r="O74" t="n" s="11">
-        <v>-0.291</v>
+        <v>-0.315</v>
       </c>
       <c r="P74" t="n" s="11">
-        <v>-0.435</v>
+        <v>-0.917</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="11">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B75" t="n" s="11">
-        <v>-0.449</v>
+        <v>-0.644</v>
       </c>
       <c r="C75" t="n" s="11">
-        <v>-0.177</v>
+        <v>-0.296</v>
       </c>
       <c r="D75" t="n" s="11">
         <v>0.0</v>
@@ -4911,33 +4911,33 @@
         <v>0.0</v>
       </c>
       <c r="K75" t="n" s="11">
-        <v>-0.183</v>
+        <v>-0.043</v>
       </c>
       <c r="L75" t="n" s="11">
-        <v>0.289</v>
+        <v>0.137</v>
       </c>
       <c r="M75" t="n" s="11">
-        <v>-0.074</v>
+        <v>-0.207</v>
       </c>
       <c r="N75" t="n" s="11">
-        <v>-1.115</v>
+        <v>-1.162</v>
       </c>
       <c r="O75" t="n" s="11">
-        <v>-0.297</v>
+        <v>-0.309</v>
       </c>
       <c r="P75" t="n" s="11">
-        <v>-0.444</v>
+        <v>-0.883</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B76" t="n" s="11">
-        <v>-0.435</v>
+        <v>-0.642</v>
       </c>
       <c r="C76" t="n" s="11">
-        <v>-0.177</v>
+        <v>-0.295</v>
       </c>
       <c r="D76" t="n" s="11">
         <v>0.0</v>
@@ -4961,33 +4961,33 @@
         <v>0.0</v>
       </c>
       <c r="K76" t="n" s="11">
-        <v>-0.197</v>
+        <v>-0.046</v>
       </c>
       <c r="L76" t="n" s="11">
-        <v>0.287</v>
+        <v>0.133</v>
       </c>
       <c r="M76" t="n" s="11">
-        <v>-0.085</v>
+        <v>-0.193</v>
       </c>
       <c r="N76" t="n" s="11">
-        <v>-1.116</v>
+        <v>-1.162</v>
       </c>
       <c r="O76" t="n" s="11">
-        <v>-0.297</v>
+        <v>-0.324</v>
       </c>
       <c r="P76" t="n" s="11">
-        <v>-0.454</v>
+        <v>-0.887</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="11">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B77" t="n" s="11">
-        <v>-0.439</v>
+        <v>-0.633</v>
       </c>
       <c r="C77" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.289</v>
       </c>
       <c r="D77" t="n" s="11">
         <v>0.0</v>
@@ -5011,33 +5011,33 @@
         <v>0.0</v>
       </c>
       <c r="K77" t="n" s="11">
-        <v>-0.19</v>
+        <v>-0.062</v>
       </c>
       <c r="L77" t="n" s="11">
-        <v>0.292</v>
+        <v>0.125</v>
       </c>
       <c r="M77" t="n" s="11">
-        <v>-0.085</v>
+        <v>-0.207</v>
       </c>
       <c r="N77" t="n" s="11">
-        <v>-1.115</v>
+        <v>-1.158</v>
       </c>
       <c r="O77" t="n" s="11">
-        <v>-0.304</v>
+        <v>-0.323</v>
       </c>
       <c r="P77" t="n" s="11">
-        <v>-0.456</v>
+        <v>-0.882</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="11">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B78" t="n" s="11">
-        <v>-0.422</v>
+        <v>-0.634</v>
       </c>
       <c r="C78" t="n" s="11">
-        <v>-0.173</v>
+        <v>-0.301</v>
       </c>
       <c r="D78" t="n" s="11">
         <v>0.0</v>
@@ -5061,33 +5061,33 @@
         <v>0.0</v>
       </c>
       <c r="K78" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.024</v>
       </c>
       <c r="L78" t="n" s="11">
-        <v>0.282</v>
+        <v>0.138</v>
       </c>
       <c r="M78" t="n" s="11">
-        <v>-0.069</v>
+        <v>-0.189</v>
       </c>
       <c r="N78" t="n" s="11">
-        <v>-1.111</v>
+        <v>-1.148</v>
       </c>
       <c r="O78" t="n" s="11">
-        <v>-0.292</v>
+        <v>-0.316</v>
       </c>
       <c r="P78" t="n" s="11">
-        <v>-0.447</v>
+        <v>-0.874</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B79" t="n" s="11">
-        <v>-0.417</v>
+        <v>-0.617</v>
       </c>
       <c r="C79" t="n" s="11">
-        <v>-0.169</v>
+        <v>-0.282</v>
       </c>
       <c r="D79" t="n" s="11">
         <v>0.0</v>
@@ -5111,33 +5111,33 @@
         <v>0.0</v>
       </c>
       <c r="K79" t="n" s="11">
-        <v>-0.161</v>
+        <v>-0.042</v>
       </c>
       <c r="L79" t="n" s="11">
-        <v>0.351</v>
+        <v>0.132</v>
       </c>
       <c r="M79" t="n" s="11">
-        <v>-0.077</v>
+        <v>-0.2</v>
       </c>
       <c r="N79" t="n" s="11">
-        <v>-1.107</v>
+        <v>-1.151</v>
       </c>
       <c r="O79" t="n" s="11">
-        <v>-0.287</v>
+        <v>-0.319</v>
       </c>
       <c r="P79" t="n" s="11">
-        <v>-0.456</v>
+        <v>-0.865</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="11">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B80" t="n" s="11">
-        <v>-0.416</v>
+        <v>-0.613</v>
       </c>
       <c r="C80" t="n" s="11">
-        <v>-0.17</v>
+        <v>-0.286</v>
       </c>
       <c r="D80" t="n" s="11">
         <v>0.0</v>
@@ -5161,33 +5161,33 @@
         <v>0.0</v>
       </c>
       <c r="K80" t="n" s="11">
-        <v>-0.154</v>
+        <v>-0.018</v>
       </c>
       <c r="L80" t="n" s="11">
-        <v>0.356</v>
+        <v>0.133</v>
       </c>
       <c r="M80" t="n" s="11">
-        <v>-0.078</v>
+        <v>-0.197</v>
       </c>
       <c r="N80" t="n" s="11">
-        <v>-1.104</v>
+        <v>-1.152</v>
       </c>
       <c r="O80" t="n" s="11">
-        <v>-0.292</v>
+        <v>-0.314</v>
       </c>
       <c r="P80" t="n" s="11">
-        <v>-0.468</v>
+        <v>-0.871</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="11">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B81" t="n" s="11">
-        <v>-0.419</v>
+        <v>-0.611</v>
       </c>
       <c r="C81" t="n" s="11">
-        <v>-0.175</v>
+        <v>-0.281</v>
       </c>
       <c r="D81" t="n" s="11">
         <v>0.0</v>
@@ -5211,33 +5211,33 @@
         <v>0.0</v>
       </c>
       <c r="K81" t="n" s="11">
-        <v>-0.177</v>
+        <v>-0.007</v>
       </c>
       <c r="L81" t="n" s="11">
-        <v>0.384</v>
+        <v>0.136</v>
       </c>
       <c r="M81" t="n" s="11">
-        <v>-0.077</v>
+        <v>-0.196</v>
       </c>
       <c r="N81" t="n" s="11">
-        <v>-1.103</v>
+        <v>-1.149</v>
       </c>
       <c r="O81" t="n" s="11">
-        <v>-0.303</v>
+        <v>-0.314</v>
       </c>
       <c r="P81" t="n" s="11">
-        <v>-0.466</v>
+        <v>-0.873</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B82" t="n" s="11">
-        <v>-0.455</v>
+        <v>-0.626</v>
       </c>
       <c r="C82" t="n" s="11">
-        <v>-0.175</v>
+        <v>-0.288</v>
       </c>
       <c r="D82" t="n" s="11">
         <v>0.0</v>
@@ -5261,33 +5261,33 @@
         <v>0.0</v>
       </c>
       <c r="K82" t="n" s="11">
-        <v>-0.228</v>
+        <v>-0.027</v>
       </c>
       <c r="L82" t="n" s="11">
-        <v>0.366</v>
+        <v>0.13</v>
       </c>
       <c r="M82" t="n" s="11">
-        <v>-0.089</v>
+        <v>-0.201</v>
       </c>
       <c r="N82" t="n" s="11">
-        <v>-1.12</v>
+        <v>-1.157</v>
       </c>
       <c r="O82" t="n" s="11">
-        <v>-0.317</v>
+        <v>-0.331</v>
       </c>
       <c r="P82" t="n" s="11">
-        <v>-0.457</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="11">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B83" t="n" s="11">
-        <v>-0.483</v>
+        <v>-0.668</v>
       </c>
       <c r="C83" t="n" s="11">
-        <v>-0.182</v>
+        <v>-0.305</v>
       </c>
       <c r="D83" t="n" s="11">
         <v>0.0</v>
@@ -5311,33 +5311,33 @@
         <v>0.0</v>
       </c>
       <c r="K83" t="n" s="11">
-        <v>-0.316</v>
+        <v>-0.145</v>
       </c>
       <c r="L83" t="n" s="11">
-        <v>0.365</v>
+        <v>0.117</v>
       </c>
       <c r="M83" t="n" s="11">
-        <v>-0.105</v>
+        <v>-0.212</v>
       </c>
       <c r="N83" t="n" s="11">
-        <v>-1.135</v>
+        <v>-1.172</v>
       </c>
       <c r="O83" t="n" s="11">
-        <v>-0.331</v>
+        <v>-0.335</v>
       </c>
       <c r="P83" t="n" s="11">
-        <v>-0.437</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="11">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B84" t="n" s="11">
-        <v>-0.523</v>
+        <v>-0.689</v>
       </c>
       <c r="C84" t="n" s="11">
-        <v>-0.208</v>
+        <v>-0.32</v>
       </c>
       <c r="D84" t="n" s="11">
         <v>0.0</v>
@@ -5361,33 +5361,33 @@
         <v>0.0</v>
       </c>
       <c r="K84" t="n" s="11">
-        <v>-0.356</v>
+        <v>-0.218</v>
       </c>
       <c r="L84" t="n" s="11">
-        <v>0.367</v>
+        <v>0.13</v>
       </c>
       <c r="M84" t="n" s="11">
-        <v>-0.127</v>
+        <v>-0.251</v>
       </c>
       <c r="N84" t="n" s="11">
-        <v>-1.159</v>
+        <v>-1.205</v>
       </c>
       <c r="O84" t="n" s="11">
-        <v>-0.325</v>
+        <v>-0.363</v>
       </c>
       <c r="P84" t="n" s="11">
-        <v>-0.409</v>
+        <v>-0.815</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B85" t="n" s="11">
-        <v>-0.544</v>
+        <v>-0.726</v>
       </c>
       <c r="C85" t="n" s="11">
-        <v>-0.217</v>
+        <v>-0.324</v>
       </c>
       <c r="D85" t="n" s="11">
         <v>0.0</v>
@@ -5411,33 +5411,33 @@
         <v>0.0</v>
       </c>
       <c r="K85" t="n" s="11">
-        <v>-0.366</v>
+        <v>-0.229</v>
       </c>
       <c r="L85" t="n" s="11">
-        <v>0.194</v>
+        <v>0.164</v>
       </c>
       <c r="M85" t="n" s="11">
-        <v>-0.152</v>
+        <v>-0.26</v>
       </c>
       <c r="N85" t="n" s="11">
-        <v>-1.184</v>
+        <v>-1.217</v>
       </c>
       <c r="O85" t="n" s="11">
-        <v>-0.289</v>
+        <v>-0.364</v>
       </c>
       <c r="P85" t="n" s="11">
-        <v>-0.375</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="11">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B86" t="n" s="11">
-        <v>-0.567</v>
+        <v>-0.758</v>
       </c>
       <c r="C86" t="n" s="11">
-        <v>-0.239</v>
+        <v>-0.346</v>
       </c>
       <c r="D86" t="n" s="11">
         <v>0.0</v>
@@ -5461,33 +5461,33 @@
         <v>0.0</v>
       </c>
       <c r="K86" t="n" s="11">
-        <v>-0.386</v>
+        <v>-0.231</v>
       </c>
       <c r="L86" t="n" s="11">
-        <v>0.246</v>
+        <v>0.132</v>
       </c>
       <c r="M86" t="n" s="11">
-        <v>-0.178</v>
+        <v>-0.275</v>
       </c>
       <c r="N86" t="n" s="11">
-        <v>-1.215</v>
+        <v>-1.235</v>
       </c>
       <c r="O86" t="n" s="11">
-        <v>-0.266</v>
+        <v>-0.359</v>
       </c>
       <c r="P86" t="n" s="11">
-        <v>-0.336</v>
+        <v>-0.775</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B87" t="n" s="11">
-        <v>-0.605</v>
+        <v>-0.773</v>
       </c>
       <c r="C87" t="n" s="11">
-        <v>-0.258</v>
+        <v>-0.356</v>
       </c>
       <c r="D87" t="n" s="11">
         <v>0.0</v>
@@ -5511,33 +5511,33 @@
         <v>0.0</v>
       </c>
       <c r="K87" t="n" s="11">
-        <v>-0.41</v>
+        <v>-0.263</v>
       </c>
       <c r="L87" t="n" s="11">
-        <v>0.261</v>
+        <v>0.161</v>
       </c>
       <c r="M87" t="n" s="11">
-        <v>-0.187</v>
+        <v>-0.3</v>
       </c>
       <c r="N87" t="n" s="11">
-        <v>-1.233</v>
+        <v>-1.256</v>
       </c>
       <c r="O87" t="n" s="11">
-        <v>-0.288</v>
+        <v>-0.402</v>
       </c>
       <c r="P87" t="n" s="11">
-        <v>-0.328</v>
+        <v>-0.754</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="11">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B88" t="n" s="11">
-        <v>-0.617</v>
+        <v>-0.798</v>
       </c>
       <c r="C88" t="n" s="11">
-        <v>-0.265</v>
+        <v>-0.366</v>
       </c>
       <c r="D88" t="n" s="11">
         <v>0.0</v>
@@ -5561,33 +5561,33 @@
         <v>0.0</v>
       </c>
       <c r="K88" t="n" s="11">
-        <v>-0.419</v>
+        <v>-0.282</v>
       </c>
       <c r="L88" t="n" s="11">
-        <v>0.279</v>
+        <v>0.122</v>
       </c>
       <c r="M88" t="n" s="11">
-        <v>-0.207</v>
+        <v>-0.307</v>
       </c>
       <c r="N88" t="n" s="11">
-        <v>-1.244</v>
+        <v>-1.272</v>
       </c>
       <c r="O88" t="n" s="11">
-        <v>-0.293</v>
+        <v>-0.417</v>
       </c>
       <c r="P88" t="n" s="11">
-        <v>-0.317</v>
+        <v>-0.736</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="11">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="B89" t="n" s="11">
-        <v>-0.633</v>
+        <v>-0.831</v>
       </c>
       <c r="C89" t="n" s="11">
-        <v>-0.272</v>
+        <v>-0.394</v>
       </c>
       <c r="D89" t="n" s="11">
         <v>0.0</v>
@@ -5611,33 +5611,33 @@
         <v>0.0</v>
       </c>
       <c r="K89" t="n" s="11">
-        <v>-0.43</v>
+        <v>-0.268</v>
       </c>
       <c r="L89" t="n" s="11">
-        <v>0.125</v>
+        <v>0.095</v>
       </c>
       <c r="M89" t="n" s="11">
-        <v>-0.216</v>
+        <v>-0.324</v>
       </c>
       <c r="N89" t="n" s="11">
-        <v>-1.244</v>
+        <v>-1.285</v>
       </c>
       <c r="O89" t="n" s="11">
-        <v>-0.305</v>
+        <v>-0.41</v>
       </c>
       <c r="P89" t="n" s="11">
-        <v>-0.318</v>
+        <v>-0.712</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="11">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B90" t="n" s="11">
-        <v>-0.629</v>
+        <v>-0.816</v>
       </c>
       <c r="C90" t="n" s="11">
-        <v>-0.273</v>
+        <v>-0.376</v>
       </c>
       <c r="D90" t="n" s="11">
         <v>0.0</v>
@@ -5661,33 +5661,33 @@
         <v>0.0</v>
       </c>
       <c r="K90" t="n" s="11">
-        <v>-0.369</v>
+        <v>-0.286</v>
       </c>
       <c r="L90" t="n" s="11">
-        <v>0.161</v>
+        <v>0.08</v>
       </c>
       <c r="M90" t="n" s="11">
-        <v>-0.218</v>
+        <v>-0.341</v>
       </c>
       <c r="N90" t="n" s="11">
-        <v>-1.251</v>
+        <v>-1.296</v>
       </c>
       <c r="O90" t="n" s="11">
-        <v>-0.309</v>
+        <v>-0.424</v>
       </c>
       <c r="P90" t="n" s="11">
-        <v>-0.31</v>
+        <v>-0.703</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="11">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="B91" t="n" s="11">
-        <v>-0.624</v>
+        <v>-0.827</v>
       </c>
       <c r="C91" t="n" s="11">
-        <v>-0.274</v>
+        <v>-0.39</v>
       </c>
       <c r="D91" t="n" s="11">
         <v>0.0</v>
@@ -5711,33 +5711,33 @@
         <v>0.0</v>
       </c>
       <c r="K91" t="n" s="11">
-        <v>-0.363</v>
+        <v>-0.295</v>
       </c>
       <c r="L91" t="n" s="11">
-        <v>0.084</v>
+        <v>0.073</v>
       </c>
       <c r="M91" t="n" s="11">
-        <v>-0.221</v>
+        <v>-0.337</v>
       </c>
       <c r="N91" t="n" s="11">
-        <v>-1.257</v>
+        <v>-1.301</v>
       </c>
       <c r="O91" t="n" s="11">
-        <v>-0.315</v>
+        <v>-0.438</v>
       </c>
       <c r="P91" t="n" s="11">
-        <v>-0.313</v>
+        <v>-0.686</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="11">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B92" t="n" s="11">
-        <v>-0.606</v>
+        <v>-0.791</v>
       </c>
       <c r="C92" t="n" s="11">
-        <v>-0.257</v>
+        <v>-0.36</v>
       </c>
       <c r="D92" t="n" s="11">
         <v>0.0</v>
@@ -5761,33 +5761,33 @@
         <v>0.0</v>
       </c>
       <c r="K92" t="n" s="11">
-        <v>-0.296</v>
+        <v>-0.141</v>
       </c>
       <c r="L92" t="n" s="11">
-        <v>0.139</v>
+        <v>0.058</v>
       </c>
       <c r="M92" t="n" s="11">
-        <v>-0.194</v>
+        <v>-0.295</v>
       </c>
       <c r="N92" t="n" s="11">
-        <v>-1.234</v>
+        <v>-1.265</v>
       </c>
       <c r="O92" t="n" s="11">
-        <v>-0.303</v>
+        <v>-0.408</v>
       </c>
       <c r="P92" t="n" s="11">
-        <v>-0.348</v>
+        <v>-0.723</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="11">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B93" t="n" s="11">
-        <v>-0.555</v>
+        <v>-0.775</v>
       </c>
       <c r="C93" t="n" s="11">
-        <v>-0.234</v>
+        <v>-0.36</v>
       </c>
       <c r="D93" t="n" s="11">
         <v>0.0</v>
@@ -5811,33 +5811,33 @@
         <v>0.0</v>
       </c>
       <c r="K93" t="n" s="11">
-        <v>-0.259</v>
+        <v>-0.124</v>
       </c>
       <c r="L93" t="n" s="11">
-        <v>0.175</v>
+        <v>0.033</v>
       </c>
       <c r="M93" t="n" s="11">
-        <v>-0.164</v>
+        <v>-0.289</v>
       </c>
       <c r="N93" t="n" s="11">
-        <v>-1.197</v>
+        <v>-1.253</v>
       </c>
       <c r="O93" t="n" s="11">
-        <v>-0.323</v>
+        <v>-0.402</v>
       </c>
       <c r="P93" t="n" s="11">
-        <v>-0.395</v>
+        <v>-0.747</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="11">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="B94" t="n" s="11">
-        <v>-0.524</v>
+        <v>-0.736</v>
       </c>
       <c r="C94" t="n" s="11">
-        <v>-0.211</v>
+        <v>-0.337</v>
       </c>
       <c r="D94" t="n" s="11">
         <v>0.0</v>
@@ -5861,33 +5861,33 @@
         <v>0.0</v>
       </c>
       <c r="K94" t="n" s="11">
-        <v>-0.239</v>
+        <v>-0.114</v>
       </c>
       <c r="L94" t="n" s="11">
-        <v>0.174</v>
+        <v>0.009</v>
       </c>
       <c r="M94" t="n" s="11">
-        <v>-0.14</v>
+        <v>-0.269</v>
       </c>
       <c r="N94" t="n" s="11">
-        <v>-1.176</v>
+        <v>-1.234</v>
       </c>
       <c r="O94" t="n" s="11">
-        <v>-0.336</v>
+        <v>-0.39</v>
       </c>
       <c r="P94" t="n" s="11">
-        <v>-0.419</v>
+        <v>-0.774</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="11">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B95" t="n" s="11">
-        <v>-0.505</v>
+        <v>-0.718</v>
       </c>
       <c r="C95" t="n" s="11">
-        <v>-0.203</v>
+        <v>-0.326</v>
       </c>
       <c r="D95" t="n" s="11">
         <v>0.0</v>
@@ -5911,33 +5911,33 @@
         <v>0.0</v>
       </c>
       <c r="K95" t="n" s="11">
-        <v>-0.227</v>
+        <v>-0.109</v>
       </c>
       <c r="L95" t="n" s="11">
-        <v>0.31</v>
+        <v>0.064</v>
       </c>
       <c r="M95" t="n" s="11">
-        <v>-0.13</v>
+        <v>-0.254</v>
       </c>
       <c r="N95" t="n" s="11">
-        <v>-1.159</v>
+        <v>-1.219</v>
       </c>
       <c r="O95" t="n" s="11">
-        <v>-0.322</v>
+        <v>-0.339</v>
       </c>
       <c r="P95" t="n" s="11">
-        <v>-0.443</v>
+        <v>-0.795</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="11">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B96" t="n" s="11">
-        <v>-0.493</v>
+        <v>-0.7</v>
       </c>
       <c r="C96" t="n" s="11">
-        <v>-0.196</v>
+        <v>-0.323</v>
       </c>
       <c r="D96" t="n" s="11">
         <v>0.0</v>
@@ -5961,33 +5961,33 @@
         <v>0.0</v>
       </c>
       <c r="K96" t="n" s="11">
-        <v>-0.218</v>
+        <v>-0.088</v>
       </c>
       <c r="L96" t="n" s="11">
-        <v>0.299</v>
+        <v>0.048</v>
       </c>
       <c r="M96" t="n" s="11">
-        <v>-0.116</v>
+        <v>-0.237</v>
       </c>
       <c r="N96" t="n" s="11">
-        <v>-1.15</v>
+        <v>-1.205</v>
       </c>
       <c r="O96" t="n" s="11">
-        <v>-0.292</v>
+        <v>-0.315</v>
       </c>
       <c r="P96" t="n" s="11">
-        <v>-0.461</v>
+        <v>-0.805</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="11">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B97" t="n" s="11">
-        <v>-0.487</v>
+        <v>-0.685</v>
       </c>
       <c r="C97" t="n" s="11">
-        <v>-0.198</v>
+        <v>-0.315</v>
       </c>
       <c r="D97" t="n" s="11">
         <v>0.0</v>
@@ -6011,33 +6011,33 @@
         <v>0.0</v>
       </c>
       <c r="K97" t="n" s="11">
-        <v>-0.197</v>
+        <v>-0.077</v>
       </c>
       <c r="L97" t="n" s="11">
-        <v>0.294</v>
+        <v>0.061</v>
       </c>
       <c r="M97" t="n" s="11">
-        <v>-0.085</v>
+        <v>-0.238</v>
       </c>
       <c r="N97" t="n" s="11">
-        <v>-1.136</v>
+        <v>-1.196</v>
       </c>
       <c r="O97" t="n" s="11">
-        <v>-0.261</v>
+        <v>-0.304</v>
       </c>
       <c r="P97" t="n" s="11">
-        <v>-0.46</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="11">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B98" t="n" s="11">
-        <v>-0.474</v>
+        <v>-0.679</v>
       </c>
       <c r="C98" t="n" s="11">
-        <v>-0.193</v>
+        <v>-0.315</v>
       </c>
       <c r="D98" t="n" s="11">
         <v>0.0</v>
@@ -6061,33 +6061,33 @@
         <v>0.0</v>
       </c>
       <c r="K98" t="n" s="11">
-        <v>-0.188</v>
+        <v>-0.064</v>
       </c>
       <c r="L98" t="n" s="11">
-        <v>0.336</v>
+        <v>0.055</v>
       </c>
       <c r="M98" t="n" s="11">
-        <v>-0.08</v>
+        <v>-0.219</v>
       </c>
       <c r="N98" t="n" s="11">
-        <v>-1.129</v>
+        <v>-1.188</v>
       </c>
       <c r="O98" t="n" s="11">
-        <v>-0.255</v>
+        <v>-0.295</v>
       </c>
       <c r="P98" t="n" s="11">
-        <v>-0.457</v>
+        <v>-0.827</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="11">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B99" t="n" s="11">
-        <v>-0.474</v>
+        <v>-0.675</v>
       </c>
       <c r="C99" t="n" s="11">
-        <v>-0.193</v>
+        <v>-0.311</v>
       </c>
       <c r="D99" t="n" s="11">
         <v>0.0</v>
@@ -6111,33 +6111,33 @@
         <v>0.0</v>
       </c>
       <c r="K99" t="n" s="11">
-        <v>-0.189</v>
+        <v>-0.065</v>
       </c>
       <c r="L99" t="n" s="11">
-        <v>0.327</v>
+        <v>0.107</v>
       </c>
       <c r="M99" t="n" s="11">
-        <v>-0.076</v>
+        <v>-0.226</v>
       </c>
       <c r="N99" t="n" s="11">
-        <v>-1.123</v>
+        <v>-1.186</v>
       </c>
       <c r="O99" t="n" s="11">
-        <v>-0.266</v>
+        <v>-0.28</v>
       </c>
       <c r="P99" t="n" s="11">
-        <v>-0.471</v>
+        <v>-0.831</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="11">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="B100" t="n" s="11">
-        <v>-0.461</v>
+        <v>-0.667</v>
       </c>
       <c r="C100" t="n" s="11">
-        <v>-0.189</v>
+        <v>-0.305</v>
       </c>
       <c r="D100" t="n" s="11">
         <v>0.0</v>
@@ -6161,33 +6161,33 @@
         <v>0.0</v>
       </c>
       <c r="K100" t="n" s="11">
-        <v>-0.189</v>
+        <v>-0.056</v>
       </c>
       <c r="L100" t="n" s="11">
-        <v>0.324</v>
+        <v>0.115</v>
       </c>
       <c r="M100" t="n" s="11">
-        <v>-0.081</v>
+        <v>-0.23</v>
       </c>
       <c r="N100" t="n" s="11">
-        <v>-1.115</v>
+        <v>-1.185</v>
       </c>
       <c r="O100" t="n" s="11">
-        <v>-0.264</v>
+        <v>-0.274</v>
       </c>
       <c r="P100" t="n" s="11">
-        <v>-0.47</v>
+        <v>-0.839</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="11">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B101" t="n" s="11">
-        <v>-0.466</v>
+        <v>-0.658</v>
       </c>
       <c r="C101" t="n" s="11">
-        <v>-0.189</v>
+        <v>-0.303</v>
       </c>
       <c r="D101" t="n" s="11">
         <v>0.0</v>
@@ -6211,33 +6211,33 @@
         <v>0.0</v>
       </c>
       <c r="K101" t="n" s="11">
-        <v>-0.171</v>
+        <v>-0.045</v>
       </c>
       <c r="L101" t="n" s="11">
-        <v>0.361</v>
+        <v>0.117</v>
       </c>
       <c r="M101" t="n" s="11">
-        <v>-0.073</v>
+        <v>-0.204</v>
       </c>
       <c r="N101" t="n" s="11">
-        <v>-1.114</v>
+        <v>-1.171</v>
       </c>
       <c r="O101" t="n" s="11">
-        <v>-0.269</v>
+        <v>-0.288</v>
       </c>
       <c r="P101" t="n" s="11">
-        <v>-0.471</v>
+        <v>-0.835</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B102" t="n" s="11">
-        <v>-0.451</v>
+        <v>-0.654</v>
       </c>
       <c r="C102" t="n" s="11">
-        <v>-0.184</v>
+        <v>-0.3</v>
       </c>
       <c r="D102" t="n" s="11">
         <v>0.0</v>
@@ -6261,33 +6261,33 @@
         <v>0.0</v>
       </c>
       <c r="K102" t="n" s="11">
-        <v>-0.192</v>
+        <v>-0.045</v>
       </c>
       <c r="L102" t="n" s="11">
-        <v>0.351</v>
+        <v>0.127</v>
       </c>
       <c r="M102" t="n" s="11">
-        <v>-0.079</v>
+        <v>-0.207</v>
       </c>
       <c r="N102" t="n" s="11">
-        <v>-1.111</v>
+        <v>-1.169</v>
       </c>
       <c r="O102" t="n" s="11">
-        <v>-0.264</v>
+        <v>-0.292</v>
       </c>
       <c r="P102" t="n" s="11">
-        <v>-0.465</v>
+        <v>-0.837</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="11">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B103" t="n" s="11">
-        <v>-0.448</v>
+        <v>-0.648</v>
       </c>
       <c r="C103" t="n" s="11">
-        <v>-0.188</v>
+        <v>-0.302</v>
       </c>
       <c r="D103" t="n" s="11">
         <v>0.0</v>
@@ -6311,33 +6311,33 @@
         <v>0.0</v>
       </c>
       <c r="K103" t="n" s="11">
-        <v>-0.174</v>
+        <v>-0.066</v>
       </c>
       <c r="L103" t="n" s="11">
-        <v>0.338</v>
+        <v>0.12</v>
       </c>
       <c r="M103" t="n" s="11">
-        <v>-0.068</v>
+        <v>-0.221</v>
       </c>
       <c r="N103" t="n" s="11">
-        <v>-1.111</v>
+        <v>-1.172</v>
       </c>
       <c r="O103" t="n" s="11">
-        <v>-0.262</v>
+        <v>-0.261</v>
       </c>
       <c r="P103" t="n" s="11">
-        <v>-0.45</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="11">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B104" t="n" s="11">
-        <v>-0.441</v>
+        <v>-0.641</v>
       </c>
       <c r="C104" t="n" s="11">
-        <v>-0.182</v>
+        <v>-0.303</v>
       </c>
       <c r="D104" t="n" s="11">
         <v>0.0</v>
@@ -6361,33 +6361,33 @@
         <v>0.0</v>
       </c>
       <c r="K104" t="n" s="11">
-        <v>-0.189</v>
+        <v>-0.046</v>
       </c>
       <c r="L104" t="n" s="11">
-        <v>0.342</v>
+        <v>0.12</v>
       </c>
       <c r="M104" t="n" s="11">
-        <v>-0.083</v>
+        <v>-0.214</v>
       </c>
       <c r="N104" t="n" s="11">
-        <v>-1.113</v>
+        <v>-1.173</v>
       </c>
       <c r="O104" t="n" s="11">
-        <v>-0.255</v>
+        <v>-0.264</v>
       </c>
       <c r="P104" t="n" s="11">
-        <v>-0.471</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B105" t="n" s="11">
-        <v>-0.443</v>
+        <v>-0.64</v>
       </c>
       <c r="C105" t="n" s="11">
-        <v>-0.185</v>
+        <v>-0.297</v>
       </c>
       <c r="D105" t="n" s="11">
         <v>0.0</v>
@@ -6411,33 +6411,33 @@
         <v>0.0</v>
       </c>
       <c r="K105" t="n" s="11">
-        <v>-0.193</v>
+        <v>-0.045</v>
       </c>
       <c r="L105" t="n" s="11">
-        <v>0.343</v>
+        <v>0.122</v>
       </c>
       <c r="M105" t="n" s="11">
-        <v>-0.078</v>
+        <v>-0.217</v>
       </c>
       <c r="N105" t="n" s="11">
-        <v>-1.106</v>
+        <v>-1.168</v>
       </c>
       <c r="O105" t="n" s="11">
-        <v>-0.264</v>
+        <v>-0.25</v>
       </c>
       <c r="P105" t="n" s="11">
-        <v>-0.469</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="11">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B106" t="n" s="11">
-        <v>-0.47</v>
+        <v>-0.66</v>
       </c>
       <c r="C106" t="n" s="11">
-        <v>-0.192</v>
+        <v>-0.301</v>
       </c>
       <c r="D106" t="n" s="11">
         <v>0.0</v>
@@ -6461,33 +6461,33 @@
         <v>0.0</v>
       </c>
       <c r="K106" t="n" s="11">
-        <v>-0.222</v>
+        <v>-0.07</v>
       </c>
       <c r="L106" t="n" s="11">
-        <v>0.326</v>
+        <v>0.121</v>
       </c>
       <c r="M106" t="n" s="11">
-        <v>-0.098</v>
+        <v>-0.221</v>
       </c>
       <c r="N106" t="n" s="11">
-        <v>-1.129</v>
+        <v>-1.176</v>
       </c>
       <c r="O106" t="n" s="11">
-        <v>-0.29</v>
+        <v>-0.272</v>
       </c>
       <c r="P106" t="n" s="11">
-        <v>-0.473</v>
+        <v>-0.827</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="11">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B107" t="n" s="11">
-        <v>-0.495</v>
+        <v>-0.673</v>
       </c>
       <c r="C107" t="n" s="11">
-        <v>-0.195</v>
+        <v>-0.303</v>
       </c>
       <c r="D107" t="n" s="11">
         <v>0.0</v>
@@ -6511,33 +6511,33 @@
         <v>0.0</v>
       </c>
       <c r="K107" t="n" s="11">
-        <v>-0.298</v>
+        <v>-0.11</v>
       </c>
       <c r="L107" t="n" s="11">
-        <v>0.323</v>
+        <v>0.115</v>
       </c>
       <c r="M107" t="n" s="11">
-        <v>-0.114</v>
+        <v>-0.223</v>
       </c>
       <c r="N107" t="n" s="11">
-        <v>-1.139</v>
+        <v>-1.184</v>
       </c>
       <c r="O107" t="n" s="11">
-        <v>-0.301</v>
+        <v>-0.272</v>
       </c>
       <c r="P107" t="n" s="11">
-        <v>-0.458</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="11">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B108" t="n" s="11">
-        <v>-0.514</v>
+        <v>-0.697</v>
       </c>
       <c r="C108" t="n" s="11">
-        <v>-0.2</v>
+        <v>-0.317</v>
       </c>
       <c r="D108" t="n" s="11">
         <v>0.0</v>
@@ -6561,33 +6561,33 @@
         <v>0.0</v>
       </c>
       <c r="K108" t="n" s="11">
-        <v>-0.355</v>
+        <v>-0.193</v>
       </c>
       <c r="L108" t="n" s="11">
-        <v>0.322</v>
+        <v>0.106</v>
       </c>
       <c r="M108" t="n" s="11">
-        <v>-0.131</v>
+        <v>-0.242</v>
       </c>
       <c r="N108" t="n" s="11">
-        <v>-1.16</v>
+        <v>-1.202</v>
       </c>
       <c r="O108" t="n" s="11">
-        <v>-0.304</v>
+        <v>-0.297</v>
       </c>
       <c r="P108" t="n" s="11">
-        <v>-0.433</v>
+        <v>-0.805</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="11">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B109" t="n" s="11">
-        <v>-0.546</v>
+        <v>-0.741</v>
       </c>
       <c r="C109" t="n" s="11">
-        <v>-0.225</v>
+        <v>-0.334</v>
       </c>
       <c r="D109" t="n" s="11">
         <v>0.0</v>
@@ -6611,33 +6611,33 @@
         <v>0.0</v>
       </c>
       <c r="K109" t="n" s="11">
-        <v>-0.359</v>
+        <v>-0.246</v>
       </c>
       <c r="L109" t="n" s="11">
-        <v>0.348</v>
+        <v>0.132</v>
       </c>
       <c r="M109" t="n" s="11">
-        <v>-0.146</v>
+        <v>-0.265</v>
       </c>
       <c r="N109" t="n" s="11">
-        <v>-1.174</v>
+        <v>-1.225</v>
       </c>
       <c r="O109" t="n" s="11">
-        <v>-0.291</v>
+        <v>-0.316</v>
       </c>
       <c r="P109" t="n" s="11">
-        <v>-0.414</v>
+        <v>-0.782</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="11">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B110" t="n" s="11">
-        <v>-0.596</v>
+        <v>-0.74</v>
       </c>
       <c r="C110" t="n" s="11">
-        <v>-0.257</v>
+        <v>-0.342</v>
       </c>
       <c r="D110" t="n" s="11">
         <v>0.0</v>
@@ -6661,33 +6661,33 @@
         <v>0.0</v>
       </c>
       <c r="K110" t="n" s="11">
-        <v>-0.404</v>
+        <v>-0.197</v>
       </c>
       <c r="L110" t="n" s="11">
-        <v>0.395</v>
+        <v>0.142</v>
       </c>
       <c r="M110" t="n" s="11">
-        <v>-0.183</v>
+        <v>-0.265</v>
       </c>
       <c r="N110" t="n" s="11">
-        <v>-1.215</v>
+        <v>-1.228</v>
       </c>
       <c r="O110" t="n" s="11">
-        <v>-0.28</v>
+        <v>-0.345</v>
       </c>
       <c r="P110" t="n" s="11">
-        <v>-0.388</v>
+        <v>-0.774</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="11">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B111" t="n" s="11">
-        <v>-0.62</v>
+        <v>-0.787</v>
       </c>
       <c r="C111" t="n" s="11">
-        <v>-0.269</v>
+        <v>-0.363</v>
       </c>
       <c r="D111" t="n" s="11">
         <v>0.0</v>
@@ -6711,33 +6711,33 @@
         <v>0.0</v>
       </c>
       <c r="K111" t="n" s="11">
-        <v>-0.438</v>
+        <v>-0.276</v>
       </c>
       <c r="L111" t="n" s="11">
-        <v>0.293</v>
+        <v>0.126</v>
       </c>
       <c r="M111" t="n" s="11">
-        <v>-0.215</v>
+        <v>-0.293</v>
       </c>
       <c r="N111" t="n" s="11">
-        <v>-1.257</v>
+        <v>-1.256</v>
       </c>
       <c r="O111" t="n" s="11">
-        <v>-0.271</v>
+        <v>-0.407</v>
       </c>
       <c r="P111" t="n" s="11">
-        <v>-0.345</v>
+        <v>-0.722</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="11">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="B112" t="n" s="11">
-        <v>-0.645</v>
+        <v>-0.812</v>
       </c>
       <c r="C112" t="n" s="11">
-        <v>-0.283</v>
+        <v>-0.378</v>
       </c>
       <c r="D112" t="n" s="11">
         <v>0.0</v>
@@ -6761,33 +6761,33 @@
         <v>0.0</v>
       </c>
       <c r="K112" t="n" s="11">
-        <v>-0.425</v>
+        <v>-0.303</v>
       </c>
       <c r="L112" t="n" s="11">
-        <v>0.271</v>
+        <v>0.108</v>
       </c>
       <c r="M112" t="n" s="11">
-        <v>-0.226</v>
+        <v>-0.341</v>
       </c>
       <c r="N112" t="n" s="11">
-        <v>-1.263</v>
+        <v>-1.3</v>
       </c>
       <c r="O112" t="n" s="11">
-        <v>-0.281</v>
+        <v>-0.423</v>
       </c>
       <c r="P112" t="n" s="11">
-        <v>-0.34</v>
+        <v>-0.676</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="11">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="B113" t="n" s="11">
-        <v>-0.676</v>
+        <v>-0.791</v>
       </c>
       <c r="C113" t="n" s="11">
-        <v>-0.304</v>
+        <v>-0.37</v>
       </c>
       <c r="D113" t="n" s="11">
         <v>0.0</v>
@@ -6811,33 +6811,33 @@
         <v>0.0</v>
       </c>
       <c r="K113" t="n" s="11">
-        <v>-0.445</v>
+        <v>-0.249</v>
       </c>
       <c r="L113" t="n" s="11">
-        <v>0.077</v>
+        <v>0.085</v>
       </c>
       <c r="M113" t="n" s="11">
-        <v>-0.243</v>
+        <v>-0.317</v>
       </c>
       <c r="N113" t="n" s="11">
-        <v>-1.279</v>
+        <v>-1.282</v>
       </c>
       <c r="O113" t="n" s="11">
-        <v>-0.312</v>
+        <v>-0.413</v>
       </c>
       <c r="P113" t="n" s="11">
-        <v>-0.359</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="11">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B114" t="n" s="11">
-        <v>-0.641</v>
+        <v>-0.801</v>
       </c>
       <c r="C114" t="n" s="11">
-        <v>-0.282</v>
+        <v>-0.374</v>
       </c>
       <c r="D114" t="n" s="11">
         <v>0.0</v>
@@ -6861,33 +6861,33 @@
         <v>0.0</v>
       </c>
       <c r="K114" t="n" s="11">
-        <v>-0.413</v>
+        <v>-0.236</v>
       </c>
       <c r="L114" t="n" s="11">
-        <v>0.072</v>
+        <v>-0.011</v>
       </c>
       <c r="M114" t="n" s="11">
-        <v>-0.222</v>
+        <v>-0.302</v>
       </c>
       <c r="N114" t="n" s="11">
-        <v>-1.257</v>
+        <v>-1.268</v>
       </c>
       <c r="O114" t="n" s="11">
-        <v>-0.31</v>
+        <v>-0.412</v>
       </c>
       <c r="P114" t="n" s="11">
-        <v>-0.381</v>
+        <v>-0.729</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="11">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="B115" t="n" s="11">
-        <v>-0.611</v>
+        <v>-0.784</v>
       </c>
       <c r="C115" t="n" s="11">
-        <v>-0.268</v>
+        <v>-0.365</v>
       </c>
       <c r="D115" t="n" s="11">
         <v>0.0</v>
@@ -6911,33 +6911,33 @@
         <v>0.0</v>
       </c>
       <c r="K115" t="n" s="11">
-        <v>-0.321</v>
+        <v>-0.169</v>
       </c>
       <c r="L115" t="n" s="11">
-        <v>0.067</v>
+        <v>0.055</v>
       </c>
       <c r="M115" t="n" s="11">
-        <v>-0.203</v>
+        <v>-0.294</v>
       </c>
       <c r="N115" t="n" s="11">
-        <v>-1.235</v>
+        <v>-1.263</v>
       </c>
       <c r="O115" t="n" s="11">
-        <v>-0.289</v>
+        <v>-0.372</v>
       </c>
       <c r="P115" t="n" s="11">
-        <v>-0.411</v>
+        <v>-0.755</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B116" t="n" s="11">
-        <v>-0.58</v>
+        <v>-0.762</v>
       </c>
       <c r="C116" t="n" s="11">
-        <v>-0.248</v>
+        <v>-0.355</v>
       </c>
       <c r="D116" t="n" s="11">
         <v>0.0</v>
@@ -6961,33 +6961,33 @@
         <v>0.0</v>
       </c>
       <c r="K116" t="n" s="11">
-        <v>-0.284</v>
+        <v>-0.11</v>
       </c>
       <c r="L116" t="n" s="11">
-        <v>0.164</v>
+        <v>0.038</v>
       </c>
       <c r="M116" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.265</v>
       </c>
       <c r="N116" t="n" s="11">
-        <v>-1.21</v>
+        <v>-1.232</v>
       </c>
       <c r="O116" t="n" s="11">
-        <v>-0.297</v>
+        <v>-0.361</v>
       </c>
       <c r="P116" t="n" s="11">
-        <v>-0.445</v>
+        <v>-0.782</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B117" t="n" s="11">
-        <v>-0.557</v>
+        <v>-0.734</v>
       </c>
       <c r="C117" t="n" s="11">
-        <v>-0.238</v>
+        <v>-0.34</v>
       </c>
       <c r="D117" t="n" s="11">
         <v>0.0</v>
@@ -7011,33 +7011,33 @@
         <v>0.0</v>
       </c>
       <c r="K117" t="n" s="11">
+        <v>-0.086</v>
+      </c>
+      <c r="L117" t="n" s="11">
+        <v>0.052</v>
+      </c>
+      <c r="M117" t="n" s="11">
         <v>-0.259</v>
       </c>
-      <c r="L117" t="n" s="11">
-        <v>0.133</v>
-      </c>
-      <c r="M117" t="n" s="11">
-        <v>-0.158</v>
-      </c>
       <c r="N117" t="n" s="11">
-        <v>-1.189</v>
+        <v>-1.227</v>
       </c>
       <c r="O117" t="n" s="11">
-        <v>-0.32</v>
+        <v>-0.349</v>
       </c>
       <c r="P117" t="n" s="11">
-        <v>-0.477</v>
+        <v>-0.793</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B118" t="n" s="11">
-        <v>-0.543</v>
+        <v>-0.724</v>
       </c>
       <c r="C118" t="n" s="11">
-        <v>-0.234</v>
+        <v>-0.34</v>
       </c>
       <c r="D118" t="n" s="11">
         <v>0.0</v>
@@ -7061,33 +7061,33 @@
         <v>0.0</v>
       </c>
       <c r="K118" t="n" s="11">
-        <v>-0.252</v>
+        <v>-0.103</v>
       </c>
       <c r="L118" t="n" s="11">
-        <v>0.122</v>
+        <v>0.034</v>
       </c>
       <c r="M118" t="n" s="11">
-        <v>-0.15</v>
+        <v>-0.249</v>
       </c>
       <c r="N118" t="n" s="11">
-        <v>-1.182</v>
+        <v>-1.216</v>
       </c>
       <c r="O118" t="n" s="11">
-        <v>-0.319</v>
+        <v>-0.341</v>
       </c>
       <c r="P118" t="n" s="11">
-        <v>-0.486</v>
+        <v>-0.808</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B119" t="n" s="11">
-        <v>-0.537</v>
+        <v>-0.705</v>
       </c>
       <c r="C119" t="n" s="11">
-        <v>-0.225</v>
+        <v>-0.325</v>
       </c>
       <c r="D119" t="n" s="11">
         <v>0.0</v>
@@ -7111,33 +7111,33 @@
         <v>0.0</v>
       </c>
       <c r="K119" t="n" s="11">
-        <v>-0.235</v>
+        <v>-0.08</v>
       </c>
       <c r="L119" t="n" s="11">
-        <v>0.261</v>
+        <v>0.064</v>
       </c>
       <c r="M119" t="n" s="11">
-        <v>-0.132</v>
+        <v>-0.233</v>
       </c>
       <c r="N119" t="n" s="11">
-        <v>-1.167</v>
+        <v>-1.201</v>
       </c>
       <c r="O119" t="n" s="11">
-        <v>-0.298</v>
+        <v>-0.315</v>
       </c>
       <c r="P119" t="n" s="11">
-        <v>-0.497</v>
+        <v>-0.817</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B120" t="n" s="11">
-        <v>-0.521</v>
+        <v>-0.696</v>
       </c>
       <c r="C120" t="n" s="11">
-        <v>-0.217</v>
+        <v>-0.321</v>
       </c>
       <c r="D120" t="n" s="11">
         <v>0.0</v>
@@ -7161,33 +7161,33 @@
         <v>0.0</v>
       </c>
       <c r="K120" t="n" s="11">
-        <v>-0.241</v>
+        <v>-0.076</v>
       </c>
       <c r="L120" t="n" s="11">
-        <v>0.29</v>
+        <v>0.097</v>
       </c>
       <c r="M120" t="n" s="11">
-        <v>-0.127</v>
+        <v>-0.228</v>
       </c>
       <c r="N120" t="n" s="11">
-        <v>-1.161</v>
+        <v>-1.196</v>
       </c>
       <c r="O120" t="n" s="11">
-        <v>-0.281</v>
+        <v>-0.294</v>
       </c>
       <c r="P120" t="n" s="11">
-        <v>-0.505</v>
+        <v>-0.822</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B121" t="n" s="11">
-        <v>-0.515</v>
+        <v>-0.69</v>
       </c>
       <c r="C121" t="n" s="11">
-        <v>-0.219</v>
+        <v>-0.321</v>
       </c>
       <c r="D121" t="n" s="11">
         <v>0.0</v>
@@ -7211,83 +7211,83 @@
         <v>0.0</v>
       </c>
       <c r="K121" t="n" s="11">
-        <v>-0.222</v>
+        <v>-0.083</v>
       </c>
       <c r="L121" t="n" s="11">
-        <v>0.302</v>
+        <v>0.105</v>
       </c>
       <c r="M121" t="n" s="11">
-        <v>-0.122</v>
+        <v>-0.228</v>
       </c>
       <c r="N121" t="n" s="11">
-        <v>-1.156</v>
+        <v>-1.193</v>
       </c>
       <c r="O121" t="n" s="11">
-        <v>-0.256</v>
+        <v>-0.302</v>
       </c>
       <c r="P121" t="n" s="11">
-        <v>-0.504</v>
+        <v>-0.832</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B122" t="n" s="11">
-        <v>-0.51</v>
+        <v>-0.684</v>
       </c>
       <c r="C122" t="n" s="11">
+        <v>-0.322</v>
+      </c>
+      <c r="D122" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E122" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F122" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G122" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H122" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I122" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J122" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K122" t="n" s="11">
+        <v>-0.059</v>
+      </c>
+      <c r="L122" t="n" s="11">
+        <v>0.106</v>
+      </c>
+      <c r="M122" t="n" s="11">
         <v>-0.217</v>
       </c>
-      <c r="D122" t="n" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E122" t="n" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F122" t="n" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G122" t="n" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H122" t="n" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="I122" t="n" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J122" t="n" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="K122" t="n" s="11">
-        <v>-0.213</v>
-      </c>
-      <c r="L122" t="n" s="11">
-        <v>0.287</v>
-      </c>
-      <c r="M122" t="n" s="11">
-        <v>-0.092</v>
-      </c>
       <c r="N122" t="n" s="11">
-        <v>-1.144</v>
+        <v>-1.184</v>
       </c>
       <c r="O122" t="n" s="11">
-        <v>-0.258</v>
+        <v>-0.285</v>
       </c>
       <c r="P122" t="n" s="11">
-        <v>-0.51</v>
+        <v>-0.832</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B123" t="n" s="11">
-        <v>-0.48</v>
+        <v>-0.673</v>
       </c>
       <c r="C123" t="n" s="11">
-        <v>-0.194</v>
+        <v>-0.317</v>
       </c>
       <c r="D123" t="n" s="11">
         <v>0.0</v>
@@ -7311,33 +7311,33 @@
         <v>0.0</v>
       </c>
       <c r="K123" t="n" s="11">
-        <v>-0.192</v>
+        <v>-0.095</v>
       </c>
       <c r="L123" t="n" s="11">
-        <v>0.312</v>
+        <v>0.1</v>
       </c>
       <c r="M123" t="n" s="11">
-        <v>-0.074</v>
+        <v>-0.231</v>
       </c>
       <c r="N123" t="n" s="11">
-        <v>-1.122</v>
+        <v>-1.185</v>
       </c>
       <c r="O123" t="n" s="11">
-        <v>-0.273</v>
+        <v>-0.283</v>
       </c>
       <c r="P123" t="n" s="11">
-        <v>-0.469</v>
+        <v>-0.833</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B124" t="n" s="11">
-        <v>-0.485</v>
+        <v>-0.66</v>
       </c>
       <c r="C124" t="n" s="11">
-        <v>-0.199</v>
+        <v>-0.31</v>
       </c>
       <c r="D124" t="n" s="11">
         <v>0.0</v>
@@ -7361,33 +7361,33 @@
         <v>0.0</v>
       </c>
       <c r="K124" t="n" s="11">
-        <v>-0.194</v>
+        <v>-0.077</v>
       </c>
       <c r="L124" t="n" s="11">
-        <v>0.313</v>
+        <v>0.101</v>
       </c>
       <c r="M124" t="n" s="11">
-        <v>-0.08</v>
+        <v>-0.226</v>
       </c>
       <c r="N124" t="n" s="11">
-        <v>-1.121</v>
+        <v>-1.174</v>
       </c>
       <c r="O124" t="n" s="11">
-        <v>-0.264</v>
+        <v>-0.268</v>
       </c>
       <c r="P124" t="n" s="11">
-        <v>-0.461</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B125" t="n" s="11">
-        <v>-0.458</v>
+        <v>-0.656</v>
       </c>
       <c r="C125" t="n" s="11">
-        <v>-0.191</v>
+        <v>-0.307</v>
       </c>
       <c r="D125" t="n" s="11">
         <v>0.0</v>
@@ -7411,33 +7411,33 @@
         <v>0.0</v>
       </c>
       <c r="K125" t="n" s="11">
-        <v>-0.183</v>
+        <v>-0.05</v>
       </c>
       <c r="L125" t="n" s="11">
-        <v>0.304</v>
+        <v>0.079</v>
       </c>
       <c r="M125" t="n" s="11">
-        <v>-0.068</v>
+        <v>-0.22</v>
       </c>
       <c r="N125" t="n" s="11">
-        <v>-1.11</v>
+        <v>-1.174</v>
       </c>
       <c r="O125" t="n" s="11">
-        <v>-0.269</v>
+        <v>-0.258</v>
       </c>
       <c r="P125" t="n" s="11">
-        <v>-0.464</v>
+        <v>-0.839</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B126" t="n" s="11">
-        <v>-0.449</v>
+        <v>-0.648</v>
       </c>
       <c r="C126" t="n" s="11">
-        <v>-0.188</v>
+        <v>-0.306</v>
       </c>
       <c r="D126" t="n" s="11">
         <v>0.0</v>
@@ -7461,33 +7461,33 @@
         <v>0.0</v>
       </c>
       <c r="K126" t="n" s="11">
-        <v>-0.157</v>
+        <v>-0.056</v>
       </c>
       <c r="L126" t="n" s="11">
-        <v>0.386</v>
+        <v>0.075</v>
       </c>
       <c r="M126" t="n" s="11">
-        <v>-0.06</v>
+        <v>-0.221</v>
       </c>
       <c r="N126" t="n" s="11">
-        <v>-1.103</v>
+        <v>-1.169</v>
       </c>
       <c r="O126" t="n" s="11">
-        <v>-0.281</v>
+        <v>-0.258</v>
       </c>
       <c r="P126" t="n" s="11">
-        <v>-0.497</v>
+        <v>-0.832</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B127" t="n" s="11">
-        <v>-0.451</v>
+        <v>-0.647</v>
       </c>
       <c r="C127" t="n" s="11">
-        <v>-0.186</v>
+        <v>-0.302</v>
       </c>
       <c r="D127" t="n" s="11">
         <v>0.0</v>
@@ -7511,33 +7511,33 @@
         <v>0.0</v>
       </c>
       <c r="K127" t="n" s="11">
-        <v>-0.175</v>
+        <v>-0.042</v>
       </c>
       <c r="L127" t="n" s="11">
-        <v>0.365</v>
+        <v>0.083</v>
       </c>
       <c r="M127" t="n" s="11">
-        <v>-0.072</v>
+        <v>-0.218</v>
       </c>
       <c r="N127" t="n" s="11">
-        <v>-1.1</v>
+        <v>-1.171</v>
       </c>
       <c r="O127" t="n" s="11">
-        <v>-0.266</v>
+        <v>-0.256</v>
       </c>
       <c r="P127" t="n" s="11">
-        <v>-0.493</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B128" t="n" s="11">
-        <v>-0.447</v>
+        <v>-0.641</v>
       </c>
       <c r="C128" t="n" s="11">
-        <v>-0.19</v>
+        <v>-0.299</v>
       </c>
       <c r="D128" t="n" s="11">
         <v>0.0</v>
@@ -7561,33 +7561,33 @@
         <v>0.0</v>
       </c>
       <c r="K128" t="n" s="11">
-        <v>-0.152</v>
+        <v>-0.06</v>
       </c>
       <c r="L128" t="n" s="11">
-        <v>0.398</v>
+        <v>0.082</v>
       </c>
       <c r="M128" t="n" s="11">
-        <v>-0.045</v>
+        <v>-0.217</v>
       </c>
       <c r="N128" t="n" s="11">
-        <v>-1.089</v>
+        <v>-1.167</v>
       </c>
       <c r="O128" t="n" s="11">
-        <v>-0.25</v>
+        <v>-0.272</v>
       </c>
       <c r="P128" t="n" s="11">
-        <v>-0.484</v>
+        <v>-0.835</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B129" t="n" s="11">
-        <v>-0.447</v>
+        <v>-0.643</v>
       </c>
       <c r="C129" t="n" s="11">
-        <v>-0.191</v>
+        <v>-0.305</v>
       </c>
       <c r="D129" t="n" s="11">
         <v>0.0</v>
@@ -7611,33 +7611,33 @@
         <v>0.0</v>
       </c>
       <c r="K129" t="n" s="11">
-        <v>-0.182</v>
+        <v>-0.087</v>
       </c>
       <c r="L129" t="n" s="11">
-        <v>0.393</v>
+        <v>0.069</v>
       </c>
       <c r="M129" t="n" s="11">
-        <v>-0.058</v>
+        <v>-0.215</v>
       </c>
       <c r="N129" t="n" s="11">
-        <v>-1.101</v>
+        <v>-1.165</v>
       </c>
       <c r="O129" t="n" s="11">
-        <v>-0.257</v>
+        <v>-0.27</v>
       </c>
       <c r="P129" t="n" s="11">
-        <v>-0.492</v>
+        <v>-0.836</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B130" t="n" s="11">
-        <v>-0.425</v>
+        <v>-0.666</v>
       </c>
       <c r="C130" t="n" s="11">
-        <v>-0.177</v>
+        <v>-0.307</v>
       </c>
       <c r="D130" t="n" s="11">
         <v>0.0</v>
@@ -7661,33 +7661,33 @@
         <v>0.0</v>
       </c>
       <c r="K130" t="n" s="11">
-        <v>-0.135</v>
+        <v>-0.127</v>
       </c>
       <c r="L130" t="n" s="11">
-        <v>0.382</v>
+        <v>0.066</v>
       </c>
       <c r="M130" t="n" s="11">
-        <v>-0.031</v>
+        <v>-0.226</v>
       </c>
       <c r="N130" t="n" s="11">
-        <v>-1.075</v>
+        <v>-1.177</v>
       </c>
       <c r="O130" t="n" s="11">
-        <v>-0.268</v>
+        <v>-0.284</v>
       </c>
       <c r="P130" t="n" s="11">
-        <v>-0.497</v>
+        <v>-0.826</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B131" t="n" s="11">
-        <v>-0.434</v>
+        <v>-0.705</v>
       </c>
       <c r="C131" t="n" s="11">
-        <v>-0.187</v>
+        <v>-0.33</v>
       </c>
       <c r="D131" t="n" s="11">
         <v>0.0</v>
@@ -7714,30 +7714,30 @@
         <v>-0.167</v>
       </c>
       <c r="L131" t="n" s="11">
-        <v>0.384</v>
+        <v>0.064</v>
       </c>
       <c r="M131" t="n" s="11">
-        <v>-0.058</v>
+        <v>-0.236</v>
       </c>
       <c r="N131" t="n" s="11">
-        <v>-1.085</v>
+        <v>-1.192</v>
       </c>
       <c r="O131" t="n" s="11">
-        <v>-0.289</v>
+        <v>-0.295</v>
       </c>
       <c r="P131" t="n" s="11">
-        <v>-0.504</v>
+        <v>-0.802</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="11">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B132" t="n" s="11">
-        <v>-0.33</v>
+        <v>-0.679</v>
       </c>
       <c r="C132" t="n" s="11">
-        <v>-0.138</v>
+        <v>-0.314</v>
       </c>
       <c r="D132" t="n" s="11">
         <v>0.0</v>
@@ -7761,33 +7761,33 @@
         <v>0.0</v>
       </c>
       <c r="K132" t="n" s="11">
-        <v>-0.07</v>
+        <v>-0.205</v>
       </c>
       <c r="L132" t="n" s="11">
-        <v>0.496</v>
+        <v>0.065</v>
       </c>
       <c r="M132" t="n" s="11">
-        <v>0.001</v>
+        <v>-0.239</v>
       </c>
       <c r="N132" t="n" s="11">
-        <v>-1.02</v>
+        <v>-1.199</v>
       </c>
       <c r="O132" t="n" s="11">
-        <v>-0.119</v>
+        <v>-0.306</v>
       </c>
       <c r="P132" t="n" s="11">
-        <v>-0.497</v>
+        <v>-0.799</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="11">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B133" t="n" s="11">
-        <v>-0.326</v>
+        <v>-0.716</v>
       </c>
       <c r="C133" t="n" s="11">
-        <v>-0.138</v>
+        <v>-0.338</v>
       </c>
       <c r="D133" t="n" s="11">
         <v>0.0</v>
@@ -7811,33 +7811,33 @@
         <v>0.0</v>
       </c>
       <c r="K133" t="n" s="11">
-        <v>-0.131</v>
+        <v>-0.219</v>
       </c>
       <c r="L133" t="n" s="11">
-        <v>0.487</v>
+        <v>0.07</v>
       </c>
       <c r="M133" t="n" s="11">
-        <v>-0.01</v>
+        <v>-0.248</v>
       </c>
       <c r="N133" t="n" s="11">
-        <v>-1.045</v>
+        <v>-1.207</v>
       </c>
       <c r="O133" t="n" s="11">
-        <v>-0.126</v>
+        <v>-0.315</v>
       </c>
       <c r="P133" t="n" s="11">
-        <v>-0.486</v>
+        <v>-0.794</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B134" t="n" s="11">
-        <v>-0.363</v>
+        <v>-0.758</v>
       </c>
       <c r="C134" t="n" s="11">
-        <v>-0.161</v>
+        <v>-0.35</v>
       </c>
       <c r="D134" t="n" s="11">
         <v>0.0</v>
@@ -7861,33 +7861,33 @@
         <v>0.0</v>
       </c>
       <c r="K134" t="n" s="11">
-        <v>-0.184</v>
+        <v>-0.259</v>
       </c>
       <c r="L134" t="n" s="11">
-        <v>0.493</v>
+        <v>0.114</v>
       </c>
       <c r="M134" t="n" s="11">
-        <v>-0.013</v>
+        <v>-0.293</v>
       </c>
       <c r="N134" t="n" s="11">
-        <v>-1.033</v>
+        <v>-1.255</v>
       </c>
       <c r="O134" t="n" s="11">
-        <v>-0.125</v>
+        <v>-0.394</v>
       </c>
       <c r="P134" t="n" s="11">
-        <v>-0.479</v>
+        <v>-0.744</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="11">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="B135" t="n" s="11">
-        <v>-0.385</v>
+        <v>-0.783</v>
       </c>
       <c r="C135" t="n" s="11">
-        <v>-0.163</v>
+        <v>-0.351</v>
       </c>
       <c r="D135" t="n" s="11">
         <v>0.0</v>
@@ -7911,22 +7911,22 @@
         <v>0.0</v>
       </c>
       <c r="K135" t="n" s="11">
-        <v>-0.232</v>
+        <v>-0.244</v>
       </c>
       <c r="L135" t="n" s="11">
-        <v>0.485</v>
+        <v>0.087</v>
       </c>
       <c r="M135" t="n" s="11">
-        <v>-0.025</v>
+        <v>-0.288</v>
       </c>
       <c r="N135" t="n" s="11">
-        <v>-1.047</v>
+        <v>-1.253</v>
       </c>
       <c r="O135" t="n" s="11">
-        <v>-0.132</v>
+        <v>-0.41</v>
       </c>
       <c r="P135" t="n" s="11">
-        <v>-0.466</v>
+        <v>-0.733</v>
       </c>
     </row>
     <row r="136">
@@ -7934,10 +7934,10 @@
         <v>161</v>
       </c>
       <c r="B136" t="n" s="11">
-        <v>-0.392</v>
+        <v>-0.785</v>
       </c>
       <c r="C136" t="n" s="11">
-        <v>-0.147</v>
+        <v>-0.364</v>
       </c>
       <c r="D136" t="n" s="11">
         <v>0.0</v>
@@ -7961,22 +7961,22 @@
         <v>0.0</v>
       </c>
       <c r="K136" t="n" s="11">
-        <v>-0.264</v>
+        <v>-0.208</v>
       </c>
       <c r="L136" t="n" s="11">
-        <v>0.477</v>
+        <v>0.06</v>
       </c>
       <c r="M136" t="n" s="11">
-        <v>-0.052</v>
+        <v>-0.296</v>
       </c>
       <c r="N136" t="n" s="11">
-        <v>-1.062</v>
+        <v>-1.256</v>
       </c>
       <c r="O136" t="n" s="11">
-        <v>-0.138</v>
+        <v>-0.463</v>
       </c>
       <c r="P136" t="n" s="11">
-        <v>-0.458</v>
+        <v>-0.723</v>
       </c>
     </row>
     <row r="137">
@@ -7984,10 +7984,10 @@
         <v>162</v>
       </c>
       <c r="B137" t="n" s="11">
-        <v>-0.39</v>
+        <v>-0.768</v>
       </c>
       <c r="C137" t="n" s="11">
-        <v>-0.151</v>
+        <v>-0.363</v>
       </c>
       <c r="D137" t="n" s="11">
         <v>0.0</v>
@@ -8011,22 +8011,22 @@
         <v>0.0</v>
       </c>
       <c r="K137" t="n" s="11">
-        <v>-0.151</v>
+        <v>-0.157</v>
       </c>
       <c r="L137" t="n" s="11">
-        <v>0.484</v>
+        <v>0.035</v>
       </c>
       <c r="M137" t="n" s="11">
-        <v>-0.037</v>
+        <v>-0.273</v>
       </c>
       <c r="N137" t="n" s="11">
-        <v>-1.061</v>
+        <v>-1.239</v>
       </c>
       <c r="O137" t="n" s="11">
-        <v>-0.136</v>
+        <v>-0.424</v>
       </c>
       <c r="P137" t="n" s="11">
-        <v>-0.477</v>
+        <v>-0.761</v>
       </c>
     </row>
     <row r="138">
@@ -8034,10 +8034,10 @@
         <v>163</v>
       </c>
       <c r="B138" t="n" s="11">
-        <v>-0.421</v>
+        <v>-0.733</v>
       </c>
       <c r="C138" t="n" s="11">
-        <v>-0.173</v>
+        <v>-0.348</v>
       </c>
       <c r="D138" t="n" s="11">
         <v>0.0</v>
@@ -8061,22 +8061,22 @@
         <v>0.0</v>
       </c>
       <c r="K138" t="n" s="11">
-        <v>-0.273</v>
+        <v>-0.152</v>
       </c>
       <c r="L138" t="n" s="11">
-        <v>0.476</v>
+        <v>0.025</v>
       </c>
       <c r="M138" t="n" s="11">
-        <v>-0.059</v>
+        <v>-0.269</v>
       </c>
       <c r="N138" t="n" s="11">
-        <v>-1.083</v>
+        <v>-1.233</v>
       </c>
       <c r="O138" t="n" s="11">
-        <v>-0.15</v>
+        <v>-0.414</v>
       </c>
       <c r="P138" t="n" s="11">
-        <v>-0.466</v>
+        <v>-0.787</v>
       </c>
     </row>
     <row r="139">
@@ -8084,10 +8084,10 @@
         <v>164</v>
       </c>
       <c r="B139" t="n" s="11">
-        <v>-0.424</v>
+        <v>-0.724</v>
       </c>
       <c r="C139" t="n" s="11">
-        <v>-0.17</v>
+        <v>-0.346</v>
       </c>
       <c r="D139" t="n" s="11">
         <v>0.0</v>
@@ -8111,22 +8111,22 @@
         <v>0.0</v>
       </c>
       <c r="K139" t="n" s="11">
-        <v>-0.264</v>
+        <v>-0.109</v>
       </c>
       <c r="L139" t="n" s="11">
-        <v>0.47</v>
+        <v>0.025</v>
       </c>
       <c r="M139" t="n" s="11">
-        <v>-0.06</v>
+        <v>-0.257</v>
       </c>
       <c r="N139" t="n" s="11">
-        <v>-1.086</v>
+        <v>-1.225</v>
       </c>
       <c r="O139" t="n" s="11">
-        <v>-0.15</v>
+        <v>-0.398</v>
       </c>
       <c r="P139" t="n" s="11">
-        <v>-0.462</v>
+        <v>-0.798</v>
       </c>
     </row>
     <row r="140">
@@ -8134,10 +8134,10 @@
         <v>165</v>
       </c>
       <c r="B140" t="n" s="11">
-        <v>-0.45</v>
+        <v>-0.719</v>
       </c>
       <c r="C140" t="n" s="11">
-        <v>-0.182</v>
+        <v>-0.33</v>
       </c>
       <c r="D140" t="n" s="11">
         <v>0.0</v>
@@ -8161,22 +8161,22 @@
         <v>0.0</v>
       </c>
       <c r="K140" t="n" s="11">
-        <v>-0.292</v>
+        <v>-0.1</v>
       </c>
       <c r="L140" t="n" s="11">
-        <v>0.469</v>
+        <v>0.051</v>
       </c>
       <c r="M140" t="n" s="11">
-        <v>-0.063</v>
+        <v>-0.25</v>
       </c>
       <c r="N140" t="n" s="11">
-        <v>-1.088</v>
+        <v>-1.214</v>
       </c>
       <c r="O140" t="n" s="11">
-        <v>-0.14</v>
+        <v>-0.381</v>
       </c>
       <c r="P140" t="n" s="11">
-        <v>-0.446</v>
+        <v>-0.803</v>
       </c>
     </row>
     <row r="141">
@@ -8184,10 +8184,10 @@
         <v>166</v>
       </c>
       <c r="B141" t="n" s="11">
-        <v>-0.439</v>
+        <v>-0.717</v>
       </c>
       <c r="C141" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.339</v>
       </c>
       <c r="D141" t="n" s="11">
         <v>0.0</v>
@@ -8211,22 +8211,22 @@
         <v>0.0</v>
       </c>
       <c r="K141" t="n" s="11">
-        <v>-0.278</v>
+        <v>-0.089</v>
       </c>
       <c r="L141" t="n" s="11">
-        <v>0.463</v>
+        <v>0.046</v>
       </c>
       <c r="M141" t="n" s="11">
-        <v>-0.07</v>
+        <v>-0.247</v>
       </c>
       <c r="N141" t="n" s="11">
-        <v>-1.095</v>
+        <v>-1.211</v>
       </c>
       <c r="O141" t="n" s="11">
-        <v>-0.136</v>
+        <v>-0.378</v>
       </c>
       <c r="P141" t="n" s="11">
-        <v>-0.453</v>
+        <v>-0.805</v>
       </c>
     </row>
     <row r="142">
@@ -8234,10 +8234,10 @@
         <v>167</v>
       </c>
       <c r="B142" t="n" s="11">
-        <v>-0.436</v>
+        <v>-0.701</v>
       </c>
       <c r="C142" t="n" s="11">
-        <v>-0.176</v>
+        <v>-0.328</v>
       </c>
       <c r="D142" t="n" s="11">
         <v>0.0</v>
@@ -8261,22 +8261,22 @@
         <v>0.0</v>
       </c>
       <c r="K142" t="n" s="11">
-        <v>-0.27</v>
+        <v>-0.077</v>
       </c>
       <c r="L142" t="n" s="11">
-        <v>0.469</v>
+        <v>0.031</v>
       </c>
       <c r="M142" t="n" s="11">
-        <v>-0.067</v>
+        <v>-0.228</v>
       </c>
       <c r="N142" t="n" s="11">
-        <v>-1.09</v>
+        <v>-1.195</v>
       </c>
       <c r="O142" t="n" s="11">
-        <v>-0.131</v>
+        <v>-0.353</v>
       </c>
       <c r="P142" t="n" s="11">
-        <v>-0.447</v>
+        <v>-0.812</v>
       </c>
     </row>
     <row r="143">
@@ -8284,10 +8284,10 @@
         <v>168</v>
       </c>
       <c r="B143" t="n" s="11">
-        <v>-0.427</v>
+        <v>-0.698</v>
       </c>
       <c r="C143" t="n" s="11">
-        <v>-0.174</v>
+        <v>-0.325</v>
       </c>
       <c r="D143" t="n" s="11">
         <v>0.0</v>
@@ -8311,22 +8311,22 @@
         <v>0.0</v>
       </c>
       <c r="K143" t="n" s="11">
-        <v>-0.261</v>
+        <v>-0.081</v>
       </c>
       <c r="L143" t="n" s="11">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="M143" t="n" s="11">
-        <v>-0.066</v>
+        <v>-0.231</v>
       </c>
       <c r="N143" t="n" s="11">
-        <v>-1.09</v>
+        <v>-1.197</v>
       </c>
       <c r="O143" t="n" s="11">
-        <v>-0.125</v>
+        <v>-0.313</v>
       </c>
       <c r="P143" t="n" s="11">
-        <v>-0.453</v>
+        <v>-0.819</v>
       </c>
     </row>
     <row r="144">
@@ -8334,10 +8334,10 @@
         <v>169</v>
       </c>
       <c r="B144" t="n" s="11">
-        <v>-0.432</v>
+        <v>-0.681</v>
       </c>
       <c r="C144" t="n" s="11">
-        <v>-0.175</v>
+        <v>-0.322</v>
       </c>
       <c r="D144" t="n" s="11">
         <v>0.0</v>
@@ -8361,22 +8361,22 @@
         <v>0.0</v>
       </c>
       <c r="K144" t="n" s="11">
-        <v>-0.235</v>
+        <v>-0.073</v>
       </c>
       <c r="L144" t="n" s="11">
-        <v>0.428</v>
+        <v>0.101</v>
       </c>
       <c r="M144" t="n" s="11">
-        <v>-0.063</v>
+        <v>-0.229</v>
       </c>
       <c r="N144" t="n" s="11">
-        <v>-1.089</v>
+        <v>-1.193</v>
       </c>
       <c r="O144" t="n" s="11">
-        <v>-0.125</v>
+        <v>-0.299</v>
       </c>
       <c r="P144" t="n" s="11">
-        <v>-0.451</v>
+        <v>-0.821</v>
       </c>
     </row>
     <row r="145">
@@ -8384,10 +8384,10 @@
         <v>170</v>
       </c>
       <c r="B145" t="n" s="11">
-        <v>-0.431</v>
+        <v>-0.685</v>
       </c>
       <c r="C145" t="n" s="11">
-        <v>-0.173</v>
+        <v>-0.321</v>
       </c>
       <c r="D145" t="n" s="11">
         <v>0.0</v>
@@ -8411,22 +8411,22 @@
         <v>0.0</v>
       </c>
       <c r="K145" t="n" s="11">
-        <v>-0.232</v>
+        <v>-0.064</v>
       </c>
       <c r="L145" t="n" s="11">
-        <v>0.327</v>
+        <v>0.097</v>
       </c>
       <c r="M145" t="n" s="11">
-        <v>-0.061</v>
+        <v>-0.215</v>
       </c>
       <c r="N145" t="n" s="11">
-        <v>-1.09</v>
+        <v>-1.179</v>
       </c>
       <c r="O145" t="n" s="11">
-        <v>-0.123</v>
+        <v>-0.281</v>
       </c>
       <c r="P145" t="n" s="11">
-        <v>-0.459</v>
+        <v>-0.816</v>
       </c>
     </row>
     <row r="146">
@@ -8434,10 +8434,10 @@
         <v>171</v>
       </c>
       <c r="B146" t="n" s="11">
-        <v>-0.423</v>
+        <v>-0.672</v>
       </c>
       <c r="C146" t="n" s="11">
-        <v>-0.173</v>
+        <v>-0.318</v>
       </c>
       <c r="D146" t="n" s="11">
         <v>0.0</v>
@@ -8461,22 +8461,22 @@
         <v>0.0</v>
       </c>
       <c r="K146" t="n" s="11">
-        <v>-0.215</v>
+        <v>-0.068</v>
       </c>
       <c r="L146" t="n" s="11">
-        <v>0.329</v>
+        <v>0.107</v>
       </c>
       <c r="M146" t="n" s="11">
-        <v>-0.06</v>
+        <v>-0.223</v>
       </c>
       <c r="N146" t="n" s="11">
-        <v>-1.084</v>
+        <v>-1.186</v>
       </c>
       <c r="O146" t="n" s="11">
-        <v>-0.126</v>
+        <v>-0.283</v>
       </c>
       <c r="P146" t="n" s="11">
-        <v>-0.466</v>
+        <v>-0.824</v>
       </c>
     </row>
     <row r="147">
@@ -8484,10 +8484,10 @@
         <v>172</v>
       </c>
       <c r="B147" t="n" s="11">
-        <v>-0.412</v>
+        <v>-0.67</v>
       </c>
       <c r="C147" t="n" s="11">
-        <v>-0.168</v>
+        <v>-0.313</v>
       </c>
       <c r="D147" t="n" s="11">
         <v>0.0</v>
@@ -8511,22 +8511,22 @@
         <v>0.0</v>
       </c>
       <c r="K147" t="n" s="11">
-        <v>-0.157</v>
+        <v>-0.067</v>
       </c>
       <c r="L147" t="n" s="11">
-        <v>0.339</v>
+        <v>0.108</v>
       </c>
       <c r="M147" t="n" s="11">
-        <v>-0.05</v>
+        <v>-0.227</v>
       </c>
       <c r="N147" t="n" s="11">
-        <v>-1.074</v>
+        <v>-1.18</v>
       </c>
       <c r="O147" t="n" s="11">
-        <v>-0.123</v>
+        <v>-0.273</v>
       </c>
       <c r="P147" t="n" s="11">
-        <v>-0.478</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="148">
@@ -8534,10 +8534,10 @@
         <v>173</v>
       </c>
       <c r="B148" t="n" s="11">
-        <v>-0.407</v>
+        <v>-0.656</v>
       </c>
       <c r="C148" t="n" s="11">
-        <v>-0.169</v>
+        <v>-0.314</v>
       </c>
       <c r="D148" t="n" s="11">
         <v>0.0</v>
@@ -8561,22 +8561,22 @@
         <v>0.0</v>
       </c>
       <c r="K148" t="n" s="11">
-        <v>-0.129</v>
+        <v>-0.055</v>
       </c>
       <c r="L148" t="n" s="11">
-        <v>0.408</v>
+        <v>0.096</v>
       </c>
       <c r="M148" t="n" s="11">
-        <v>-0.044</v>
+        <v>-0.217</v>
       </c>
       <c r="N148" t="n" s="11">
-        <v>-1.069</v>
+        <v>-1.18</v>
       </c>
       <c r="O148" t="n" s="11">
-        <v>-0.119</v>
+        <v>-0.275</v>
       </c>
       <c r="P148" t="n" s="11">
-        <v>-0.479</v>
+        <v>-0.828</v>
       </c>
     </row>
     <row r="149">
@@ -8584,10 +8584,10 @@
         <v>174</v>
       </c>
       <c r="B149" t="n" s="11">
-        <v>-0.408</v>
+        <v>-0.649</v>
       </c>
       <c r="C149" t="n" s="11">
-        <v>-0.17</v>
+        <v>-0.309</v>
       </c>
       <c r="D149" t="n" s="11">
         <v>0.0</v>
@@ -8611,22 +8611,22 @@
         <v>0.0</v>
       </c>
       <c r="K149" t="n" s="11">
-        <v>-0.194</v>
+        <v>-0.061</v>
       </c>
       <c r="L149" t="n" s="11">
-        <v>0.402</v>
+        <v>0.085</v>
       </c>
       <c r="M149" t="n" s="11">
-        <v>-0.056</v>
+        <v>-0.222</v>
       </c>
       <c r="N149" t="n" s="11">
-        <v>-1.074</v>
+        <v>-1.171</v>
       </c>
       <c r="O149" t="n" s="11">
-        <v>-0.117</v>
+        <v>-0.249</v>
       </c>
       <c r="P149" t="n" s="11">
-        <v>-0.468</v>
+        <v>-0.818</v>
       </c>
     </row>
     <row r="150">
@@ -8634,10 +8634,10 @@
         <v>175</v>
       </c>
       <c r="B150" t="n" s="11">
-        <v>-0.395</v>
+        <v>-0.647</v>
       </c>
       <c r="C150" t="n" s="11">
-        <v>-0.163</v>
+        <v>-0.308</v>
       </c>
       <c r="D150" t="n" s="11">
         <v>0.0</v>
@@ -8661,33 +8661,33 @@
         <v>0.0</v>
       </c>
       <c r="K150" t="n" s="11">
-        <v>-0.118</v>
+        <v>-0.044</v>
       </c>
       <c r="L150" t="n" s="11">
-        <v>0.372</v>
+        <v>0.098</v>
       </c>
       <c r="M150" t="n" s="11">
-        <v>-0.042</v>
+        <v>-0.215</v>
       </c>
       <c r="N150" t="n" s="11">
-        <v>-1.062</v>
+        <v>-1.173</v>
       </c>
       <c r="O150" t="n" s="11">
-        <v>-0.116</v>
+        <v>-0.252</v>
       </c>
       <c r="P150" t="n" s="11">
-        <v>-0.486</v>
+        <v>-0.818</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="11">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="B151" t="n" s="11">
-        <v>-0.403</v>
+        <v>-0.637</v>
       </c>
       <c r="C151" t="n" s="11">
-        <v>-0.168</v>
+        <v>-0.302</v>
       </c>
       <c r="D151" t="n" s="11">
         <v>0.0</v>
@@ -8711,33 +8711,33 @@
         <v>0.0</v>
       </c>
       <c r="K151" t="n" s="11">
-        <v>-0.155</v>
+        <v>-0.044</v>
       </c>
       <c r="L151" t="n" s="11">
-        <v>0.372</v>
+        <v>0.09</v>
       </c>
       <c r="M151" t="n" s="11">
-        <v>-0.046</v>
+        <v>-0.214</v>
       </c>
       <c r="N151" t="n" s="11">
-        <v>-1.067</v>
+        <v>-1.157</v>
       </c>
       <c r="O151" t="n" s="11">
-        <v>-0.112</v>
+        <v>-0.235</v>
       </c>
       <c r="P151" t="n" s="11">
-        <v>-0.475</v>
+        <v>-0.816</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="11">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="B152" t="n" s="11">
-        <v>-0.394</v>
+        <v>-0.633</v>
       </c>
       <c r="C152" t="n" s="11">
-        <v>-0.169</v>
+        <v>-0.305</v>
       </c>
       <c r="D152" t="n" s="11">
         <v>0.0</v>
@@ -8761,22 +8761,22 @@
         <v>0.0</v>
       </c>
       <c r="K152" t="n" s="11">
-        <v>-0.144</v>
+        <v>-0.049</v>
       </c>
       <c r="L152" t="n" s="11">
-        <v>0.372</v>
+        <v>0.085</v>
       </c>
       <c r="M152" t="n" s="11">
-        <v>-0.042</v>
+        <v>-0.206</v>
       </c>
       <c r="N152" t="n" s="11">
-        <v>-1.067</v>
+        <v>-1.156</v>
       </c>
       <c r="O152" t="n" s="11">
-        <v>-0.113</v>
+        <v>-0.232</v>
       </c>
       <c r="P152" t="n" s="11">
-        <v>-0.482</v>
+        <v>-0.818</v>
       </c>
     </row>
     <row r="153">
@@ -8784,10 +8784,10 @@
         <v>177</v>
       </c>
       <c r="B153" t="n" s="11">
-        <v>-0.395</v>
+        <v>-0.631</v>
       </c>
       <c r="C153" t="n" s="11">
-        <v>-0.172</v>
+        <v>-0.307</v>
       </c>
       <c r="D153" t="n" s="11">
         <v>0.0</v>
@@ -8811,22 +8811,22 @@
         <v>0.0</v>
       </c>
       <c r="K153" t="n" s="11">
-        <v>-0.128</v>
+        <v>-0.023</v>
       </c>
       <c r="L153" t="n" s="11">
-        <v>0.377</v>
+        <v>0.082</v>
       </c>
       <c r="M153" t="n" s="11">
-        <v>-0.04</v>
+        <v>-0.199</v>
       </c>
       <c r="N153" t="n" s="11">
-        <v>-1.064</v>
+        <v>-1.158</v>
       </c>
       <c r="O153" t="n" s="11">
-        <v>-0.113</v>
+        <v>-0.269</v>
       </c>
       <c r="P153" t="n" s="11">
-        <v>-0.491</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="154">
@@ -8834,10 +8834,10 @@
         <v>178</v>
       </c>
       <c r="B154" t="n" s="11">
-        <v>-0.422</v>
+        <v>-0.647</v>
       </c>
       <c r="C154" t="n" s="11">
-        <v>-0.172</v>
+        <v>-0.309</v>
       </c>
       <c r="D154" t="n" s="11">
         <v>0.0</v>
@@ -8861,22 +8861,22 @@
         <v>0.0</v>
       </c>
       <c r="K154" t="n" s="11">
-        <v>-0.196</v>
+        <v>-0.076</v>
       </c>
       <c r="L154" t="n" s="11">
-        <v>0.365</v>
+        <v>0.081</v>
       </c>
       <c r="M154" t="n" s="11">
-        <v>-0.053</v>
+        <v>-0.211</v>
       </c>
       <c r="N154" t="n" s="11">
-        <v>-1.076</v>
+        <v>-1.168</v>
       </c>
       <c r="O154" t="n" s="11">
-        <v>-0.12</v>
+        <v>-0.29</v>
       </c>
       <c r="P154" t="n" s="11">
-        <v>-0.482</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="155">
@@ -8884,10 +8884,10 @@
         <v>179</v>
       </c>
       <c r="B155" t="n" s="11">
-        <v>-0.457</v>
+        <v>-0.683</v>
       </c>
       <c r="C155" t="n" s="11">
-        <v>-0.184</v>
+        <v>-0.313</v>
       </c>
       <c r="D155" t="n" s="11">
         <v>0.0</v>
@@ -8911,33 +8911,33 @@
         <v>0.0</v>
       </c>
       <c r="K155" t="n" s="11">
-        <v>-0.29</v>
+        <v>-0.171</v>
       </c>
       <c r="L155" t="n" s="11">
-        <v>0.349</v>
+        <v>0.07</v>
       </c>
       <c r="M155" t="n" s="11">
-        <v>-0.069</v>
+        <v>-0.229</v>
       </c>
       <c r="N155" t="n" s="11">
-        <v>-1.091</v>
+        <v>-1.184</v>
       </c>
       <c r="O155" t="n" s="11">
-        <v>-0.133</v>
+        <v>-0.3</v>
       </c>
       <c r="P155" t="n" s="11">
-        <v>-0.461</v>
+        <v>-0.798</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="11">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="B156" t="n" s="11">
-        <v>-0.497</v>
+        <v>-0.722</v>
       </c>
       <c r="C156" t="n" s="11">
-        <v>-0.198</v>
+        <v>-0.344</v>
       </c>
       <c r="D156" t="n" s="11">
         <v>0.0</v>
@@ -8961,33 +8961,33 @@
         <v>0.0</v>
       </c>
       <c r="K156" t="n" s="11">
-        <v>-0.321</v>
+        <v>-0.219</v>
       </c>
       <c r="L156" t="n" s="11">
-        <v>0.372</v>
+        <v>0.071</v>
       </c>
       <c r="M156" t="n" s="11">
-        <v>-0.096</v>
+        <v>-0.243</v>
       </c>
       <c r="N156" t="n" s="11">
-        <v>-1.116</v>
+        <v>-1.201</v>
       </c>
       <c r="O156" t="n" s="11">
-        <v>-0.119</v>
+        <v>-0.312</v>
       </c>
       <c r="P156" t="n" s="11">
-        <v>-0.435</v>
+        <v>-0.775</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="11">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="B157" t="n" s="11">
-        <v>-0.508</v>
+        <v>-0.753</v>
       </c>
       <c r="C157" t="n" s="11">
-        <v>-0.199</v>
+        <v>-0.352</v>
       </c>
       <c r="D157" t="n" s="11">
         <v>0.0</v>
@@ -9011,33 +9011,33 @@
         <v>0.0</v>
       </c>
       <c r="K157" t="n" s="11">
-        <v>-0.335</v>
+        <v>-0.214</v>
       </c>
       <c r="L157" t="n" s="11">
-        <v>0.393</v>
+        <v>0.035</v>
       </c>
       <c r="M157" t="n" s="11">
-        <v>-0.112</v>
+        <v>-0.261</v>
       </c>
       <c r="N157" t="n" s="11">
-        <v>-1.141</v>
+        <v>-1.223</v>
       </c>
       <c r="O157" t="n" s="11">
-        <v>-0.145</v>
+        <v>-0.341</v>
       </c>
       <c r="P157" t="n" s="11">
-        <v>-0.42</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B158" t="n" s="11">
-        <v>-0.54</v>
+        <v>-0.737</v>
       </c>
       <c r="C158" t="n" s="11">
-        <v>-0.225</v>
+        <v>-0.349</v>
       </c>
       <c r="D158" t="n" s="11">
         <v>0.0</v>
@@ -9061,33 +9061,33 @@
         <v>0.0</v>
       </c>
       <c r="K158" t="n" s="11">
-        <v>-0.329</v>
+        <v>-0.229</v>
       </c>
       <c r="L158" t="n" s="11">
-        <v>0.421</v>
+        <v>0.03</v>
       </c>
       <c r="M158" t="n" s="11">
-        <v>-0.134</v>
+        <v>-0.265</v>
       </c>
       <c r="N158" t="n" s="11">
-        <v>-1.162</v>
+        <v>-1.222</v>
       </c>
       <c r="O158" t="n" s="11">
-        <v>-0.147</v>
+        <v>-0.362</v>
       </c>
       <c r="P158" t="n" s="11">
-        <v>-0.404</v>
+        <v>-0.754</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B159" t="n" s="11">
-        <v>-0.563</v>
+        <v>-0.786</v>
       </c>
       <c r="C159" t="n" s="11">
-        <v>-0.238</v>
+        <v>-0.368</v>
       </c>
       <c r="D159" t="n" s="11">
         <v>0.0</v>
@@ -9111,33 +9111,33 @@
         <v>0.0</v>
       </c>
       <c r="K159" t="n" s="11">
-        <v>-0.387</v>
+        <v>-0.265</v>
       </c>
       <c r="L159" t="n" s="11">
-        <v>0.41</v>
+        <v>0.085</v>
       </c>
       <c r="M159" t="n" s="11">
-        <v>-0.153</v>
+        <v>-0.285</v>
       </c>
       <c r="N159" t="n" s="11">
-        <v>-1.179</v>
+        <v>-1.248</v>
       </c>
       <c r="O159" t="n" s="11">
-        <v>-0.143</v>
+        <v>-0.385</v>
       </c>
       <c r="P159" t="n" s="11">
-        <v>-0.393</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B160" t="n" s="11">
-        <v>-0.599</v>
+        <v>-0.777</v>
       </c>
       <c r="C160" t="n" s="11">
-        <v>-0.255</v>
+        <v>-0.368</v>
       </c>
       <c r="D160" t="n" s="11">
         <v>0.0</v>
@@ -9161,33 +9161,33 @@
         <v>0.0</v>
       </c>
       <c r="K160" t="n" s="11">
-        <v>-0.409</v>
+        <v>-0.225</v>
       </c>
       <c r="L160" t="n" s="11">
-        <v>0.361</v>
+        <v>0.075</v>
       </c>
       <c r="M160" t="n" s="11">
-        <v>-0.186</v>
+        <v>-0.298</v>
       </c>
       <c r="N160" t="n" s="11">
-        <v>-1.213</v>
+        <v>-1.259</v>
       </c>
       <c r="O160" t="n" s="11">
-        <v>-0.149</v>
+        <v>-0.406</v>
       </c>
       <c r="P160" t="n" s="11">
-        <v>-0.359</v>
+        <v>-0.702</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B161" t="n" s="11">
-        <v>-0.598</v>
+        <v>-0.787</v>
       </c>
       <c r="C161" t="n" s="11">
-        <v>-0.254</v>
+        <v>-0.37</v>
       </c>
       <c r="D161" t="n" s="11">
         <v>0.0</v>
@@ -9211,33 +9211,33 @@
         <v>0.0</v>
       </c>
       <c r="K161" t="n" s="11">
-        <v>-0.372</v>
+        <v>-0.279</v>
       </c>
       <c r="L161" t="n" s="11">
-        <v>0.345</v>
+        <v>-0.011</v>
       </c>
       <c r="M161" t="n" s="11">
-        <v>-0.182</v>
+        <v>-0.298</v>
       </c>
       <c r="N161" t="n" s="11">
-        <v>-1.211</v>
+        <v>-1.262</v>
       </c>
       <c r="O161" t="n" s="11">
-        <v>-0.175</v>
+        <v>-0.47</v>
       </c>
       <c r="P161" t="n" s="11">
-        <v>-0.369</v>
+        <v>-0.777</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="11">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="B162" t="n" s="11">
-        <v>-0.567</v>
+        <v>-0.761</v>
       </c>
       <c r="C162" t="n" s="11">
-        <v>-0.248</v>
+        <v>-0.364</v>
       </c>
       <c r="D162" t="n" s="11">
         <v>0.0</v>
@@ -9261,33 +9261,33 @@
         <v>0.0</v>
       </c>
       <c r="K162" t="n" s="11">
-        <v>-0.258</v>
+        <v>-0.156</v>
       </c>
       <c r="L162" t="n" s="11">
-        <v>0.352</v>
+        <v>-0.023</v>
       </c>
       <c r="M162" t="n" s="11">
-        <v>-0.149</v>
+        <v>-0.283</v>
       </c>
       <c r="N162" t="n" s="11">
-        <v>-1.176</v>
+        <v>-1.247</v>
       </c>
       <c r="O162" t="n" s="11">
-        <v>-0.158</v>
+        <v>-0.457</v>
       </c>
       <c r="P162" t="n" s="11">
-        <v>-0.406</v>
+        <v>-0.787</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B163" t="n" s="11">
-        <v>-0.558</v>
+        <v>-0.773</v>
       </c>
       <c r="C163" t="n" s="11">
-        <v>-0.236</v>
+        <v>-0.374</v>
       </c>
       <c r="D163" t="n" s="11">
         <v>0.0</v>
@@ -9311,33 +9311,33 @@
         <v>0.0</v>
       </c>
       <c r="K163" t="n" s="11">
-        <v>-0.249</v>
+        <v>-0.205</v>
       </c>
       <c r="L163" t="n" s="11">
-        <v>0.338</v>
+        <v>-0.01</v>
       </c>
       <c r="M163" t="n" s="11">
-        <v>-0.137</v>
+        <v>-0.293</v>
       </c>
       <c r="N163" t="n" s="11">
-        <v>-1.168</v>
+        <v>-1.258</v>
       </c>
       <c r="O163" t="n" s="11">
-        <v>-0.157</v>
+        <v>-0.46</v>
       </c>
       <c r="P163" t="n" s="11">
-        <v>-0.43</v>
+        <v>-0.788</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B164" t="n" s="11">
-        <v>-0.55</v>
+        <v>-0.752</v>
       </c>
       <c r="C164" t="n" s="11">
-        <v>-0.233</v>
+        <v>-0.356</v>
       </c>
       <c r="D164" t="n" s="11">
         <v>0.0</v>
@@ -9361,33 +9361,33 @@
         <v>0.0</v>
       </c>
       <c r="K164" t="n" s="11">
-        <v>-0.24</v>
+        <v>-0.129</v>
       </c>
       <c r="L164" t="n" s="11">
-        <v>0.339</v>
+        <v>-0.012</v>
       </c>
       <c r="M164" t="n" s="11">
-        <v>-0.134</v>
+        <v>-0.267</v>
       </c>
       <c r="N164" t="n" s="11">
-        <v>-1.161</v>
+        <v>-1.232</v>
       </c>
       <c r="O164" t="n" s="11">
-        <v>-0.157</v>
+        <v>-0.446</v>
       </c>
       <c r="P164" t="n" s="11">
-        <v>-0.442</v>
+        <v>-0.809</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B165" t="n" s="11">
-        <v>-0.538</v>
+        <v>-0.721</v>
       </c>
       <c r="C165" t="n" s="11">
-        <v>-0.237</v>
+        <v>-0.34</v>
       </c>
       <c r="D165" t="n" s="11">
         <v>0.0</v>
@@ -9411,33 +9411,33 @@
         <v>0.0</v>
       </c>
       <c r="K165" t="n" s="11">
-        <v>-0.238</v>
+        <v>-0.096</v>
       </c>
       <c r="L165" t="n" s="11">
-        <v>0.331</v>
+        <v>0.013</v>
       </c>
       <c r="M165" t="n" s="11">
-        <v>-0.129</v>
+        <v>-0.244</v>
       </c>
       <c r="N165" t="n" s="11">
-        <v>-1.155</v>
+        <v>-1.21</v>
       </c>
       <c r="O165" t="n" s="11">
-        <v>-0.165</v>
+        <v>-0.408</v>
       </c>
       <c r="P165" t="n" s="11">
-        <v>-0.447</v>
+        <v>-0.837</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="11">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="B166" t="n" s="11">
-        <v>-0.524</v>
+        <v>-0.701</v>
       </c>
       <c r="C166" t="n" s="11">
-        <v>-0.215</v>
+        <v>-0.329</v>
       </c>
       <c r="D166" t="n" s="11">
         <v>0.0</v>
@@ -9461,33 +9461,33 @@
         <v>0.0</v>
       </c>
       <c r="K166" t="n" s="11">
-        <v>-0.217</v>
+        <v>-0.079</v>
       </c>
       <c r="L166" t="n" s="11">
-        <v>0.317</v>
+        <v>0.004</v>
       </c>
       <c r="M166" t="n" s="11">
-        <v>-0.117</v>
+        <v>-0.229</v>
       </c>
       <c r="N166" t="n" s="11">
-        <v>-1.145</v>
+        <v>-1.194</v>
       </c>
       <c r="O166" t="n" s="11">
-        <v>-0.179</v>
+        <v>-0.356</v>
       </c>
       <c r="P166" t="n" s="11">
-        <v>-0.465</v>
+        <v>-0.853</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="11">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="B167" t="n" s="11">
-        <v>-0.424</v>
+        <v>-0.689</v>
       </c>
       <c r="C167" t="n" s="11">
-        <v>-0.192</v>
+        <v>-0.33</v>
       </c>
       <c r="D167" t="n" s="11">
         <v>0.0</v>
@@ -9511,33 +9511,33 @@
         <v>0.0</v>
       </c>
       <c r="K167" t="n" s="11">
-        <v>-0.135</v>
+        <v>-0.085</v>
       </c>
       <c r="L167" t="n" s="11">
-        <v>0.314</v>
+        <v>0.063</v>
       </c>
       <c r="M167" t="n" s="11">
-        <v>-0.056</v>
+        <v>-0.229</v>
       </c>
       <c r="N167" t="n" s="11">
-        <v>-1.085</v>
+        <v>-1.192</v>
       </c>
       <c r="O167" t="n" s="11">
-        <v>-0.274</v>
+        <v>-0.306</v>
       </c>
       <c r="P167" t="n" s="11">
-        <v>-0.516</v>
+        <v>-0.843</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168" t="n" s="11">
-        <v>-0.433</v>
+        <v>-0.695</v>
       </c>
       <c r="C168" t="n" s="11">
-        <v>-0.194</v>
+        <v>-0.328</v>
       </c>
       <c r="D168" t="n" s="11">
         <v>0.0</v>
@@ -9561,33 +9561,33 @@
         <v>0.0</v>
       </c>
       <c r="K168" t="n" s="11">
-        <v>-0.192</v>
+        <v>-0.069</v>
       </c>
       <c r="L168" t="n" s="11">
-        <v>0.365</v>
+        <v>0.064</v>
       </c>
       <c r="M168" t="n" s="11">
-        <v>-0.062</v>
+        <v>-0.221</v>
       </c>
       <c r="N168" t="n" s="11">
-        <v>-1.086</v>
+        <v>-1.191</v>
       </c>
       <c r="O168" t="n" s="11">
-        <v>-0.278</v>
+        <v>-0.29</v>
       </c>
       <c r="P168" t="n" s="11">
-        <v>-0.508</v>
+        <v>-0.827</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169" t="n" s="11">
-        <v>-0.443</v>
+        <v>-0.698</v>
       </c>
       <c r="C169" t="n" s="11">
-        <v>-0.193</v>
+        <v>-0.332</v>
       </c>
       <c r="D169" t="n" s="11">
         <v>0.0</v>
@@ -9611,33 +9611,33 @@
         <v>0.0</v>
       </c>
       <c r="K169" t="n" s="11">
-        <v>-0.235</v>
+        <v>-0.076</v>
       </c>
       <c r="L169" t="n" s="11">
-        <v>0.36</v>
+        <v>0.063</v>
       </c>
       <c r="M169" t="n" s="11">
-        <v>-0.073</v>
+        <v>-0.231</v>
       </c>
       <c r="N169" t="n" s="11">
-        <v>-1.094</v>
+        <v>-1.194</v>
       </c>
       <c r="O169" t="n" s="11">
-        <v>-0.277</v>
+        <v>-0.29</v>
       </c>
       <c r="P169" t="n" s="11">
-        <v>-0.501</v>
+        <v>-0.819</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="11">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="B170" t="n" s="11">
-        <v>-0.445</v>
+        <v>-0.686</v>
       </c>
       <c r="C170" t="n" s="11">
-        <v>-0.194</v>
+        <v>-0.327</v>
       </c>
       <c r="D170" t="n" s="11">
         <v>0.0</v>
@@ -9661,22 +9661,22 @@
         <v>0.0</v>
       </c>
       <c r="K170" t="n" s="11">
-        <v>-0.19</v>
+        <v>-0.066</v>
       </c>
       <c r="L170" t="n" s="11">
-        <v>0.359</v>
+        <v>0.109</v>
       </c>
       <c r="M170" t="n" s="11">
-        <v>-0.067</v>
+        <v>-0.226</v>
       </c>
       <c r="N170" t="n" s="11">
-        <v>-1.092</v>
+        <v>-1.192</v>
       </c>
       <c r="O170" t="n" s="11">
-        <v>-0.27</v>
+        <v>-0.286</v>
       </c>
       <c r="P170" t="n" s="11">
-        <v>-0.504</v>
+        <v>-0.817</v>
       </c>
     </row>
     <row r="171">
@@ -9684,10 +9684,10 @@
         <v>3</v>
       </c>
       <c r="B171" t="n" s="10">
-        <v>-0.326</v>
+        <v>-0.582</v>
       </c>
       <c r="C171" t="n" s="10">
-        <v>-0.119</v>
+        <v>-0.261</v>
       </c>
       <c r="D171" t="n" s="10">
         <v>0.0</v>
@@ -9711,22 +9711,22 @@
         <v>0.0</v>
       </c>
       <c r="K171" t="n" s="10">
-        <v>-0.07</v>
+        <v>0.036</v>
       </c>
       <c r="L171" t="n" s="10">
-        <v>0.496</v>
+        <v>0.183</v>
       </c>
       <c r="M171" t="n" s="10">
-        <v>0.001</v>
+        <v>-0.035</v>
       </c>
       <c r="N171" t="n" s="10">
-        <v>-1.02</v>
+        <v>-1.061</v>
       </c>
       <c r="O171" t="n" s="10">
-        <v>-0.112</v>
+        <v>-0.232</v>
       </c>
       <c r="P171" t="n" s="10">
-        <v>-0.271</v>
+        <v>-0.458</v>
       </c>
     </row>
     <row r="172">
@@ -9737,25 +9737,25 @@
         <v>10</v>
       </c>
       <c r="C172" t="s" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E172" t="s" s="10">
         <v>17</v>
       </c>
       <c r="F172" t="s" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G172" t="s" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H172" t="s" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I172" t="s" s="10">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J172" t="s" s="10">
         <v>17</v>
@@ -9764,7 +9764,7 @@
         <v>30</v>
       </c>
       <c r="L172" t="s" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M172" t="s" s="10">
         <v>30</v>
@@ -9773,10 +9773,10 @@
         <v>30</v>
       </c>
       <c r="O172" t="s" s="10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P172" t="s" s="10">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
@@ -9784,10 +9784,10 @@
         <v>5</v>
       </c>
       <c r="B173" t="n" s="10">
-        <v>-0.676</v>
+        <v>-0.831</v>
       </c>
       <c r="C173" t="n" s="10">
-        <v>-0.304</v>
+        <v>-0.394</v>
       </c>
       <c r="D173" t="n" s="10">
         <v>0.0</v>
@@ -9811,22 +9811,22 @@
         <v>0.0</v>
       </c>
       <c r="K173" t="n" s="10">
-        <v>-1.256</v>
+        <v>-0.303</v>
       </c>
       <c r="L173" t="n" s="10">
-        <v>0.067</v>
+        <v>-0.023</v>
       </c>
       <c r="M173" t="n" s="10">
-        <v>-0.243</v>
+        <v>-0.341</v>
       </c>
       <c r="N173" t="n" s="10">
-        <v>-1.279</v>
+        <v>-1.301</v>
       </c>
       <c r="O173" t="n" s="10">
-        <v>-0.336</v>
+        <v>-2.22</v>
       </c>
       <c r="P173" t="n" s="10">
-        <v>-0.516</v>
+        <v>-0.923</v>
       </c>
     </row>
     <row r="174">
@@ -9846,37 +9846,37 @@
         <v>18</v>
       </c>
       <c r="F174" t="s" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G174" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="H174" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="H174" t="s" s="10">
-        <v>25</v>
-      </c>
       <c r="I174" t="s" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J174" t="s" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K174" t="s" s="10">
         <v>31</v>
       </c>
       <c r="L174" t="s" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M174" t="s" s="10">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N174" t="s" s="10">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="O174" t="s" s="10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P174" t="s" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175">
@@ -9884,10 +9884,10 @@
         <v>7</v>
       </c>
       <c r="B175" t="n" s="10">
-        <v>0.349</v>
+        <v>0.25</v>
       </c>
       <c r="C175" t="n" s="10">
-        <v>0.185</v>
+        <v>0.134</v>
       </c>
       <c r="D175" t="n" s="10">
         <v>0.0</v>
@@ -9911,22 +9911,22 @@
         <v>0.0</v>
       </c>
       <c r="K175" t="n" s="10">
-        <v>1.186</v>
+        <v>0.339</v>
       </c>
       <c r="L175" t="n" s="10">
-        <v>0.429</v>
+        <v>0.206</v>
       </c>
       <c r="M175" t="n" s="10">
-        <v>0.244</v>
+        <v>0.306</v>
       </c>
       <c r="N175" t="n" s="10">
-        <v>0.258</v>
+        <v>0.24</v>
       </c>
       <c r="O175" t="n" s="10">
-        <v>0.223</v>
+        <v>1.989</v>
       </c>
       <c r="P175" t="n" s="10">
-        <v>0.244</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="176">
@@ -9934,10 +9934,10 @@
         <v>8</v>
       </c>
       <c r="B176" t="n" s="10">
-        <v>-0.469</v>
+        <v>-0.691</v>
       </c>
       <c r="C176" t="n" s="10">
-        <v>-0.188</v>
+        <v>-0.318</v>
       </c>
       <c r="D176" t="n" s="10">
         <v>0.0</v>
@@ -9961,22 +9961,22 @@
         <v>0.001</v>
       </c>
       <c r="K176" t="n" s="10">
-        <v>-0.247</v>
+        <v>-0.122</v>
       </c>
       <c r="L176" t="n" s="10">
-        <v>0.323</v>
+        <v>0.084</v>
       </c>
       <c r="M176" t="n" s="10">
-        <v>-0.103</v>
+        <v>-0.204</v>
       </c>
       <c r="N176" t="n" s="10">
-        <v>-1.136</v>
+        <v>-1.181</v>
       </c>
       <c r="O176" t="n" s="10">
-        <v>-0.249</v>
+        <v>-0.428</v>
       </c>
       <c r="P176" t="n" s="10">
-        <v>-0.427</v>
+        <v>-0.714</v>
       </c>
     </row>
   </sheetData>
